--- a/Prototypes/Mungbean/GattonKylie.xlsx
+++ b/Prototypes/Mungbean/GattonKylie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6311CA-2E09-470A-8E4E-0657B186AC35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9FA18C-6114-4F01-8841-633838BBECD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2820" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kylie" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="18">
   <si>
     <t>site</t>
   </si>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R4392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1166" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K1204" sqref="K1204"/>
+    <sheetView tabSelected="1" topLeftCell="A1425" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C208" sqref="C208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28158,1421 +28158,6299 @@
       </c>
     </row>
     <row r="1189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1189" s="4"/>
-      <c r="F1189" s="1"/>
-      <c r="G1189" s="1"/>
+      <c r="A1189" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1189" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1189">
+        <v>84</v>
+      </c>
+      <c r="D1189">
+        <v>22</v>
+      </c>
+      <c r="E1189">
+        <v>30.1</v>
+      </c>
+      <c r="F1189" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="G1189" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="1190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1190" s="4"/>
-      <c r="F1190" s="1"/>
-      <c r="G1190" s="1"/>
+      <c r="A1190" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1190" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1190">
+        <v>85</v>
+      </c>
+      <c r="D1190">
+        <v>22.2</v>
+      </c>
+      <c r="E1190">
+        <v>29.4</v>
+      </c>
+      <c r="F1190" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="G1190" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="1191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1191" s="4"/>
-      <c r="F1191" s="1"/>
-      <c r="G1191" s="1"/>
+      <c r="A1191" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1191" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1191">
+        <v>86</v>
+      </c>
+      <c r="D1191">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E1191">
+        <v>31</v>
+      </c>
+      <c r="F1191" s="1">
+        <v>17.3</v>
+      </c>
+      <c r="G1191" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="1192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1192" s="4"/>
-      <c r="F1192" s="1"/>
-      <c r="G1192" s="1"/>
+      <c r="A1192" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1192" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1192">
+        <v>87</v>
+      </c>
+      <c r="D1192">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E1192">
+        <v>30.6</v>
+      </c>
+      <c r="F1192" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="G1192" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="1193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1193" s="4"/>
-      <c r="F1193" s="1"/>
-      <c r="G1193" s="1"/>
+      <c r="A1193" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1193" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1193">
+        <v>88</v>
+      </c>
+      <c r="D1193">
+        <v>19.2</v>
+      </c>
+      <c r="E1193">
+        <v>29.8</v>
+      </c>
+      <c r="F1193" s="1">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G1193" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="1194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1194" s="4"/>
-      <c r="F1194" s="1"/>
-      <c r="G1194" s="1"/>
+      <c r="A1194" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1194" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1194">
+        <v>89</v>
+      </c>
+      <c r="D1194">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E1194">
+        <v>27.3</v>
+      </c>
+      <c r="F1194" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="G1194" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="1195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1195" s="4"/>
-      <c r="F1195" s="1"/>
-      <c r="G1195" s="1"/>
+      <c r="A1195" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1195" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1195">
+        <v>90</v>
+      </c>
+      <c r="D1195">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E1195">
+        <v>26.4</v>
+      </c>
+      <c r="F1195" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="G1195" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="1196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1196" s="4"/>
-      <c r="F1196" s="1"/>
-      <c r="G1196" s="1"/>
+      <c r="A1196" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1196" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1196">
+        <v>91</v>
+      </c>
+      <c r="D1196">
+        <v>15.2</v>
+      </c>
+      <c r="E1196">
+        <v>25.4</v>
+      </c>
+      <c r="F1196" s="1">
+        <v>13.8</v>
+      </c>
+      <c r="G1196" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="1197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1197" s="4"/>
-      <c r="F1197" s="1"/>
-      <c r="G1197" s="1"/>
+      <c r="A1197" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1197" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1197">
+        <v>92</v>
+      </c>
+      <c r="D1197">
+        <v>17</v>
+      </c>
+      <c r="E1197">
+        <v>27.2</v>
+      </c>
+      <c r="F1197" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="G1197" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="1198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1198" s="4"/>
-      <c r="F1198" s="1"/>
-      <c r="G1198" s="1"/>
+      <c r="A1198" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1198" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1198">
+        <v>93</v>
+      </c>
+      <c r="D1198">
+        <v>9.1</v>
+      </c>
+      <c r="E1198">
+        <v>23.7</v>
+      </c>
+      <c r="F1198" s="1">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G1198" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="1199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1199" s="4"/>
-      <c r="F1199" s="1"/>
-      <c r="G1199" s="1"/>
+      <c r="A1199" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1199" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1199">
+        <v>94</v>
+      </c>
+      <c r="D1199">
+        <v>7.4</v>
+      </c>
+      <c r="E1199">
+        <v>22.5</v>
+      </c>
+      <c r="F1199" s="1">
+        <v>18.3</v>
+      </c>
+      <c r="G1199" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="1200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1200" s="4"/>
-      <c r="F1200" s="1"/>
-      <c r="G1200" s="1"/>
-    </row>
-    <row r="1201" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1201" s="4"/>
-      <c r="F1201" s="1"/>
-      <c r="G1201" s="1"/>
-    </row>
-    <row r="1202" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1202" s="4"/>
-      <c r="F1202" s="1"/>
-      <c r="G1202" s="1"/>
-    </row>
-    <row r="1203" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1203" s="4"/>
-      <c r="F1203" s="1"/>
-      <c r="G1203" s="1"/>
-    </row>
-    <row r="1204" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1204" s="4"/>
-      <c r="F1204" s="1"/>
-      <c r="G1204" s="1"/>
-    </row>
-    <row r="1205" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1205" s="4"/>
-      <c r="F1205" s="1"/>
-      <c r="G1205" s="1"/>
-    </row>
-    <row r="1206" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1206" s="4"/>
-      <c r="F1206" s="1"/>
-      <c r="G1206" s="1"/>
-    </row>
-    <row r="1207" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1207" s="4"/>
-      <c r="F1207" s="1"/>
-      <c r="G1207" s="1"/>
-    </row>
-    <row r="1208" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1208" s="4"/>
-      <c r="F1208" s="1"/>
-      <c r="G1208" s="1"/>
-    </row>
-    <row r="1209" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1209" s="4"/>
-      <c r="F1209" s="1"/>
-      <c r="G1209" s="1"/>
-    </row>
-    <row r="1210" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1210" s="4"/>
-      <c r="F1210" s="1"/>
-      <c r="G1210" s="1"/>
-    </row>
-    <row r="1211" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1211" s="4"/>
-      <c r="F1211" s="1"/>
-      <c r="G1211" s="1"/>
-    </row>
-    <row r="1212" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1212" s="4"/>
-      <c r="F1212" s="1"/>
-      <c r="G1212" s="1"/>
-    </row>
-    <row r="1213" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1213" s="4"/>
-      <c r="F1213" s="1"/>
-      <c r="G1213" s="1"/>
-    </row>
-    <row r="1214" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1214" s="4"/>
-      <c r="F1214" s="1"/>
-      <c r="G1214" s="1"/>
-    </row>
-    <row r="1215" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1215" s="4"/>
-      <c r="F1215" s="1"/>
-      <c r="G1215" s="1"/>
-    </row>
-    <row r="1216" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1216" s="4"/>
-      <c r="F1216" s="1"/>
-      <c r="G1216" s="1"/>
-    </row>
-    <row r="1217" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1217" s="4"/>
-      <c r="F1217" s="1"/>
-      <c r="G1217" s="1"/>
-    </row>
-    <row r="1218" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1218" s="4"/>
-      <c r="F1218" s="1"/>
-      <c r="G1218" s="1"/>
-    </row>
-    <row r="1219" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1219" s="4"/>
-      <c r="F1219" s="1"/>
-      <c r="G1219" s="1"/>
-    </row>
-    <row r="1220" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1220" s="4"/>
-      <c r="F1220" s="1"/>
-      <c r="G1220" s="1"/>
-    </row>
-    <row r="1221" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1221" s="4"/>
-      <c r="F1221" s="1"/>
-      <c r="G1221" s="1"/>
-    </row>
-    <row r="1222" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1222" s="4"/>
-      <c r="F1222" s="1"/>
-      <c r="G1222" s="1"/>
-    </row>
-    <row r="1223" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1223" s="4"/>
-      <c r="F1223" s="1"/>
-      <c r="G1223" s="1"/>
-    </row>
-    <row r="1224" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1224" s="4"/>
-      <c r="F1224" s="1"/>
-      <c r="G1224" s="1"/>
-    </row>
-    <row r="1225" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1225" s="4"/>
-      <c r="F1225" s="1"/>
-      <c r="G1225" s="1"/>
-    </row>
-    <row r="1226" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1226" s="4"/>
-      <c r="F1226" s="1"/>
-      <c r="G1226" s="1"/>
-    </row>
-    <row r="1227" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1227" s="4"/>
-      <c r="F1227" s="1"/>
-      <c r="G1227" s="1"/>
-    </row>
-    <row r="1228" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1228" s="4"/>
-      <c r="F1228" s="1"/>
-      <c r="G1228" s="1"/>
-    </row>
-    <row r="1229" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1229" s="4"/>
-      <c r="F1229" s="1"/>
-      <c r="G1229" s="1"/>
-    </row>
-    <row r="1230" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1230" s="4"/>
-      <c r="F1230" s="1"/>
-      <c r="G1230" s="1"/>
-    </row>
-    <row r="1231" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1231" s="4"/>
-      <c r="F1231" s="1"/>
-      <c r="G1231" s="1"/>
-    </row>
-    <row r="1232" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1232" s="4"/>
-      <c r="F1232" s="1"/>
-      <c r="G1232" s="1"/>
-    </row>
-    <row r="1233" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1233" s="4"/>
-      <c r="F1233" s="1"/>
-      <c r="G1233" s="1"/>
-    </row>
-    <row r="1234" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1234" s="4"/>
-      <c r="F1234" s="1"/>
-      <c r="G1234" s="1"/>
-    </row>
-    <row r="1235" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1235" s="4"/>
-      <c r="F1235" s="1"/>
-      <c r="G1235" s="1"/>
-    </row>
-    <row r="1236" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1236" s="4"/>
-      <c r="F1236" s="1"/>
-      <c r="G1236" s="1"/>
-    </row>
-    <row r="1237" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1237" s="4"/>
-      <c r="F1237" s="1"/>
-      <c r="G1237" s="1"/>
-    </row>
-    <row r="1238" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1238" s="4"/>
-      <c r="F1238" s="1"/>
-      <c r="G1238" s="1"/>
-    </row>
-    <row r="1239" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1239" s="4"/>
-      <c r="F1239" s="1"/>
-      <c r="G1239" s="1"/>
-    </row>
-    <row r="1240" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1240" s="4"/>
-      <c r="F1240" s="1"/>
-      <c r="G1240" s="1"/>
-    </row>
-    <row r="1241" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1241" s="4"/>
-      <c r="F1241" s="1"/>
-      <c r="G1241" s="1"/>
-    </row>
-    <row r="1242" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1242" s="4"/>
-      <c r="F1242" s="1"/>
-      <c r="G1242" s="1"/>
-    </row>
-    <row r="1243" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1243" s="4"/>
-      <c r="F1243" s="1"/>
-      <c r="G1243" s="1"/>
-    </row>
-    <row r="1244" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1244" s="4"/>
-      <c r="F1244" s="1"/>
-      <c r="G1244" s="1"/>
-    </row>
-    <row r="1245" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1245" s="4"/>
-      <c r="F1245" s="1"/>
-      <c r="G1245" s="1"/>
-    </row>
-    <row r="1246" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1246" s="4"/>
-      <c r="F1246" s="1"/>
-      <c r="G1246" s="1"/>
-    </row>
-    <row r="1247" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1247" s="4"/>
-      <c r="F1247" s="1"/>
-      <c r="G1247" s="1"/>
-    </row>
-    <row r="1248" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1248" s="4"/>
-      <c r="F1248" s="1"/>
-      <c r="G1248" s="1"/>
-    </row>
-    <row r="1249" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1249" s="4"/>
-      <c r="F1249" s="1"/>
-      <c r="G1249" s="1"/>
-    </row>
-    <row r="1250" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1250" s="4"/>
-      <c r="F1250" s="1"/>
-      <c r="G1250" s="1"/>
-    </row>
-    <row r="1251" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1251" s="4"/>
-      <c r="F1251" s="1"/>
-      <c r="G1251" s="1"/>
-    </row>
-    <row r="1252" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1252" s="4"/>
-      <c r="F1252" s="1"/>
-      <c r="G1252" s="1"/>
-    </row>
-    <row r="1253" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1253" s="4"/>
-      <c r="F1253" s="1"/>
-      <c r="G1253" s="1"/>
-    </row>
-    <row r="1254" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1254" s="4"/>
-      <c r="F1254" s="1"/>
-      <c r="G1254" s="1"/>
-    </row>
-    <row r="1255" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1255" s="4"/>
-      <c r="F1255" s="1"/>
-      <c r="G1255" s="1"/>
-    </row>
-    <row r="1256" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1256" s="4"/>
-      <c r="F1256" s="1"/>
-      <c r="G1256" s="1"/>
-    </row>
-    <row r="1257" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1257" s="4"/>
-      <c r="F1257" s="1"/>
-      <c r="G1257" s="1"/>
-    </row>
-    <row r="1258" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1258" s="4"/>
-      <c r="F1258" s="1"/>
-      <c r="G1258" s="1"/>
-    </row>
-    <row r="1259" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1259" s="4"/>
-      <c r="F1259" s="1"/>
-      <c r="G1259" s="1"/>
-    </row>
-    <row r="1260" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1260" s="4"/>
-      <c r="F1260" s="1"/>
-      <c r="G1260" s="1"/>
-    </row>
-    <row r="1261" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1261" s="4"/>
-      <c r="F1261" s="1"/>
-      <c r="G1261" s="1"/>
-    </row>
-    <row r="1262" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1262" s="4"/>
-      <c r="F1262" s="1"/>
-      <c r="G1262" s="1"/>
-    </row>
-    <row r="1263" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1263" s="4"/>
-      <c r="F1263" s="1"/>
-      <c r="G1263" s="1"/>
-    </row>
-    <row r="1264" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1264" s="4"/>
-      <c r="F1264" s="1"/>
-      <c r="G1264" s="1"/>
-    </row>
-    <row r="1265" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1265" s="4"/>
-      <c r="F1265" s="1"/>
-      <c r="G1265" s="1"/>
-    </row>
-    <row r="1266" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1266" s="4"/>
-      <c r="F1266" s="1"/>
-      <c r="G1266" s="1"/>
-    </row>
-    <row r="1267" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1267" s="4"/>
-      <c r="F1267" s="1"/>
-      <c r="G1267" s="1"/>
-    </row>
-    <row r="1268" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1268" s="4"/>
-      <c r="F1268" s="1"/>
-      <c r="G1268" s="1"/>
-    </row>
-    <row r="1269" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1269" s="4"/>
-      <c r="F1269" s="1"/>
-      <c r="G1269" s="1"/>
-    </row>
-    <row r="1270" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1270" s="4"/>
-      <c r="F1270" s="1"/>
-      <c r="G1270" s="1"/>
-    </row>
-    <row r="1271" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1271" s="4"/>
-      <c r="F1271" s="1"/>
-      <c r="G1271" s="1"/>
-    </row>
-    <row r="1272" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1272" s="4"/>
-      <c r="F1272" s="1"/>
-      <c r="G1272" s="1"/>
-    </row>
-    <row r="1273" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1273" s="4"/>
-      <c r="F1273" s="1"/>
-      <c r="G1273" s="1"/>
-    </row>
-    <row r="1274" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1274" s="4"/>
-      <c r="F1274" s="1"/>
-      <c r="G1274" s="1"/>
-    </row>
-    <row r="1275" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1275" s="4"/>
-      <c r="F1275" s="1"/>
-      <c r="G1275" s="1"/>
-    </row>
-    <row r="1276" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1276" s="4"/>
-      <c r="F1276" s="1"/>
-      <c r="G1276" s="1"/>
-    </row>
-    <row r="1277" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1277" s="4"/>
-      <c r="F1277" s="1"/>
-      <c r="G1277" s="1"/>
-    </row>
-    <row r="1278" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1278" s="4"/>
-      <c r="F1278" s="1"/>
-      <c r="G1278" s="1"/>
-    </row>
-    <row r="1279" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1279" s="4"/>
-      <c r="F1279" s="1"/>
-      <c r="G1279" s="1"/>
-    </row>
-    <row r="1280" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1280" s="4"/>
-      <c r="F1280" s="1"/>
-      <c r="G1280" s="1"/>
-    </row>
-    <row r="1281" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1281" s="4"/>
-      <c r="F1281" s="1"/>
-      <c r="G1281" s="1"/>
-    </row>
-    <row r="1282" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1282" s="4"/>
-      <c r="F1282" s="1"/>
-      <c r="G1282" s="1"/>
-    </row>
-    <row r="1283" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1283" s="4"/>
-      <c r="F1283" s="1"/>
-      <c r="G1283" s="1"/>
-    </row>
-    <row r="1284" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1284" s="4"/>
-      <c r="F1284" s="1"/>
-      <c r="G1284" s="1"/>
-    </row>
-    <row r="1285" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1285" s="4"/>
-      <c r="F1285" s="1"/>
-      <c r="G1285" s="1"/>
-    </row>
-    <row r="1286" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1286" s="4"/>
-      <c r="F1286" s="1"/>
-      <c r="G1286" s="1"/>
-    </row>
-    <row r="1287" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1287" s="4"/>
-      <c r="F1287" s="1"/>
-      <c r="G1287" s="1"/>
-    </row>
-    <row r="1288" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1288" s="4"/>
-      <c r="F1288" s="1"/>
-      <c r="G1288" s="1"/>
-    </row>
-    <row r="1289" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1289" s="4"/>
-      <c r="F1289" s="1"/>
-      <c r="G1289" s="1"/>
-    </row>
-    <row r="1290" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1290" s="4"/>
-      <c r="F1290" s="1"/>
-      <c r="G1290" s="1"/>
-    </row>
-    <row r="1291" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1291" s="4"/>
-      <c r="F1291" s="1"/>
-      <c r="G1291" s="1"/>
-    </row>
-    <row r="1292" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1292" s="4"/>
-      <c r="F1292" s="1"/>
-      <c r="G1292" s="1"/>
-    </row>
-    <row r="1293" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1293" s="4"/>
-      <c r="F1293" s="1"/>
-      <c r="G1293" s="1"/>
-    </row>
-    <row r="1294" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1294" s="4"/>
-      <c r="F1294" s="1"/>
-      <c r="G1294" s="1"/>
-    </row>
-    <row r="1295" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1295" s="4"/>
-      <c r="F1295" s="1"/>
-      <c r="G1295" s="1"/>
-    </row>
-    <row r="1296" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1296" s="4"/>
-      <c r="F1296" s="1"/>
-      <c r="G1296" s="1"/>
-    </row>
-    <row r="1297" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1297" s="4"/>
-      <c r="F1297" s="1"/>
-      <c r="G1297" s="1"/>
-    </row>
-    <row r="1298" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1298" s="4"/>
-      <c r="F1298" s="1"/>
-      <c r="G1298" s="1"/>
-    </row>
-    <row r="1299" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1299" s="4"/>
-      <c r="F1299" s="1"/>
-      <c r="G1299" s="1"/>
-    </row>
-    <row r="1300" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1300" s="4"/>
-      <c r="F1300" s="1"/>
-      <c r="G1300" s="1"/>
-    </row>
-    <row r="1301" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1301" s="4"/>
-      <c r="F1301" s="1"/>
-      <c r="G1301" s="1"/>
-    </row>
-    <row r="1302" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1302" s="4"/>
-      <c r="F1302" s="1"/>
-      <c r="G1302" s="1"/>
-    </row>
-    <row r="1303" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1303" s="4"/>
-      <c r="F1303" s="1"/>
-      <c r="G1303" s="1"/>
-    </row>
-    <row r="1304" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1304" s="4"/>
-      <c r="F1304" s="1"/>
-      <c r="G1304" s="1"/>
-    </row>
-    <row r="1305" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1305" s="4"/>
-      <c r="F1305" s="1"/>
-      <c r="G1305" s="1"/>
-    </row>
-    <row r="1306" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1306" s="4"/>
-      <c r="F1306" s="1"/>
-      <c r="G1306" s="1"/>
-    </row>
-    <row r="1307" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1307" s="4"/>
-      <c r="F1307" s="1"/>
-      <c r="G1307" s="1"/>
-    </row>
-    <row r="1308" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1308" s="4"/>
-      <c r="F1308" s="1"/>
-      <c r="G1308" s="1"/>
-    </row>
-    <row r="1309" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1309" s="4"/>
-      <c r="F1309" s="1"/>
-      <c r="G1309" s="1"/>
-    </row>
-    <row r="1310" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1310" s="4"/>
-      <c r="F1310" s="1"/>
-      <c r="G1310" s="1"/>
-    </row>
-    <row r="1311" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1311" s="4"/>
-      <c r="F1311" s="1"/>
-      <c r="G1311" s="1"/>
-    </row>
-    <row r="1312" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1312" s="4"/>
-      <c r="F1312" s="1"/>
-      <c r="G1312" s="1"/>
-    </row>
-    <row r="1313" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1313" s="4"/>
-      <c r="F1313" s="1"/>
-      <c r="G1313" s="1"/>
-    </row>
-    <row r="1314" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1314" s="4"/>
-      <c r="F1314" s="1"/>
-      <c r="G1314" s="1"/>
-    </row>
-    <row r="1315" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1315" s="4"/>
-      <c r="F1315" s="1"/>
-      <c r="G1315" s="1"/>
-    </row>
-    <row r="1316" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1316" s="4"/>
-      <c r="F1316" s="1"/>
-      <c r="G1316" s="1"/>
-    </row>
-    <row r="1317" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1317" s="4"/>
-      <c r="F1317" s="1"/>
-      <c r="G1317" s="1"/>
-    </row>
-    <row r="1318" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1318" s="4"/>
-      <c r="F1318" s="1"/>
-      <c r="G1318" s="1"/>
-    </row>
-    <row r="1319" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1319" s="4"/>
-      <c r="F1319" s="1"/>
-      <c r="G1319" s="1"/>
-    </row>
-    <row r="1320" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1320" s="4"/>
-      <c r="F1320" s="1"/>
-      <c r="G1320" s="1"/>
-    </row>
-    <row r="1321" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1321" s="4"/>
-      <c r="F1321" s="1"/>
-      <c r="G1321" s="1"/>
-    </row>
-    <row r="1322" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1322" s="4"/>
-      <c r="F1322" s="1"/>
-      <c r="G1322" s="1"/>
-    </row>
-    <row r="1323" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1323" s="4"/>
-      <c r="F1323" s="1"/>
-      <c r="G1323" s="1"/>
-    </row>
-    <row r="1324" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1324" s="4"/>
-      <c r="F1324" s="1"/>
-      <c r="G1324" s="1"/>
-    </row>
-    <row r="1325" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1325" s="4"/>
-      <c r="F1325" s="1"/>
-      <c r="G1325" s="1"/>
-    </row>
-    <row r="1326" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1326" s="4"/>
-      <c r="F1326" s="1"/>
-      <c r="G1326" s="1"/>
-    </row>
-    <row r="1327" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1327" s="4"/>
-      <c r="F1327" s="1"/>
-      <c r="G1327" s="1"/>
-    </row>
-    <row r="1328" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1328" s="4"/>
-      <c r="F1328" s="1"/>
-      <c r="G1328" s="1"/>
-    </row>
-    <row r="1329" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1329" s="4"/>
-      <c r="F1329" s="1"/>
-      <c r="G1329" s="1"/>
-    </row>
-    <row r="1330" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1330" s="4"/>
-      <c r="F1330" s="1"/>
-      <c r="G1330" s="1"/>
-    </row>
-    <row r="1331" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1331" s="4"/>
-      <c r="F1331" s="1"/>
-      <c r="G1331" s="1"/>
-    </row>
-    <row r="1332" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1332" s="4"/>
-      <c r="F1332" s="1"/>
-      <c r="G1332" s="1"/>
-    </row>
-    <row r="1333" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1333" s="4"/>
-      <c r="F1333" s="1"/>
-      <c r="G1333" s="1"/>
-    </row>
-    <row r="1334" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1334" s="4"/>
-      <c r="F1334" s="1"/>
-      <c r="G1334" s="1"/>
-    </row>
-    <row r="1335" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1335" s="4"/>
-      <c r="F1335" s="1"/>
-      <c r="G1335" s="1"/>
-    </row>
-    <row r="1336" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1336" s="4"/>
-      <c r="F1336" s="1"/>
-      <c r="G1336" s="1"/>
-    </row>
-    <row r="1337" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1337" s="4"/>
-      <c r="F1337" s="1"/>
-      <c r="G1337" s="1"/>
-    </row>
-    <row r="1338" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1338" s="4"/>
-      <c r="F1338" s="1"/>
-      <c r="G1338" s="1"/>
-    </row>
-    <row r="1339" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1339" s="4"/>
-      <c r="F1339" s="1"/>
-      <c r="G1339" s="1"/>
-    </row>
-    <row r="1340" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1340" s="4"/>
-      <c r="F1340" s="1"/>
-      <c r="G1340" s="1"/>
-    </row>
-    <row r="1341" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1341" s="4"/>
-      <c r="F1341" s="1"/>
-      <c r="G1341" s="1"/>
-    </row>
-    <row r="1342" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1342" s="4"/>
-      <c r="F1342" s="1"/>
-      <c r="G1342" s="1"/>
-    </row>
-    <row r="1343" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1343" s="4"/>
-      <c r="F1343" s="1"/>
-      <c r="G1343" s="1"/>
-    </row>
-    <row r="1344" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1344" s="4"/>
-      <c r="F1344" s="1"/>
-      <c r="G1344" s="1"/>
-    </row>
-    <row r="1345" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1345" s="4"/>
-      <c r="F1345" s="1"/>
-      <c r="G1345" s="1"/>
-    </row>
-    <row r="1346" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1346" s="4"/>
-      <c r="F1346" s="1"/>
-      <c r="G1346" s="1"/>
-    </row>
-    <row r="1347" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1347" s="4"/>
-      <c r="F1347" s="1"/>
-      <c r="G1347" s="1"/>
-    </row>
-    <row r="1348" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1348" s="4"/>
-      <c r="F1348" s="1"/>
-      <c r="G1348" s="1"/>
-    </row>
-    <row r="1349" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1349" s="4"/>
-      <c r="F1349" s="1"/>
-      <c r="G1349" s="1"/>
-    </row>
-    <row r="1350" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1350" s="4"/>
-      <c r="F1350" s="1"/>
-      <c r="G1350" s="1"/>
-    </row>
-    <row r="1351" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1351" s="4"/>
-      <c r="F1351" s="1"/>
-      <c r="G1351" s="1"/>
-    </row>
-    <row r="1352" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1352" s="4"/>
-      <c r="F1352" s="1"/>
-      <c r="G1352" s="1"/>
-    </row>
-    <row r="1353" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1353" s="4"/>
-      <c r="F1353" s="1"/>
-      <c r="G1353" s="1"/>
-    </row>
-    <row r="1354" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1354" s="4"/>
-      <c r="F1354" s="1"/>
-      <c r="G1354" s="1"/>
-    </row>
-    <row r="1355" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1355" s="4"/>
-      <c r="F1355" s="1"/>
-      <c r="G1355" s="1"/>
-    </row>
-    <row r="1356" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1356" s="4"/>
-      <c r="F1356" s="1"/>
-      <c r="G1356" s="1"/>
-    </row>
-    <row r="1357" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1357" s="4"/>
-      <c r="F1357" s="1"/>
-      <c r="G1357" s="1"/>
-    </row>
-    <row r="1358" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1358" s="4"/>
-      <c r="F1358" s="1"/>
-      <c r="G1358" s="1"/>
-    </row>
-    <row r="1359" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1359" s="4"/>
-      <c r="F1359" s="1"/>
-      <c r="G1359" s="1"/>
-    </row>
-    <row r="1360" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1360" s="4"/>
-      <c r="F1360" s="1"/>
-      <c r="G1360" s="1"/>
-    </row>
-    <row r="1361" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1361" s="4"/>
-      <c r="F1361" s="1"/>
-      <c r="G1361" s="1"/>
-    </row>
-    <row r="1362" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1362" s="4"/>
-      <c r="F1362" s="1"/>
-      <c r="G1362" s="1"/>
-    </row>
-    <row r="1363" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1363" s="4"/>
-      <c r="F1363" s="1"/>
-      <c r="G1363" s="1"/>
-    </row>
-    <row r="1364" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1364" s="4"/>
-      <c r="F1364" s="1"/>
-      <c r="G1364" s="1"/>
-    </row>
-    <row r="1365" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1365" s="4"/>
-      <c r="F1365" s="1"/>
-      <c r="G1365" s="1"/>
-    </row>
-    <row r="1366" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1366" s="4"/>
-      <c r="F1366" s="1"/>
-      <c r="G1366" s="1"/>
-    </row>
-    <row r="1367" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1367" s="4"/>
-      <c r="F1367" s="1"/>
-      <c r="G1367" s="1"/>
-    </row>
-    <row r="1368" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1368" s="4"/>
-      <c r="F1368" s="1"/>
-      <c r="G1368" s="1"/>
-    </row>
-    <row r="1369" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1369" s="4"/>
-      <c r="F1369" s="1"/>
-      <c r="G1369" s="1"/>
-    </row>
-    <row r="1370" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1370" s="4"/>
-      <c r="F1370" s="1"/>
-      <c r="G1370" s="1"/>
-    </row>
-    <row r="1371" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1371" s="4"/>
-      <c r="F1371" s="1"/>
-      <c r="G1371" s="1"/>
-    </row>
-    <row r="1372" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1372" s="4"/>
-      <c r="F1372" s="1"/>
-      <c r="G1372" s="1"/>
-    </row>
-    <row r="1373" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1373" s="4"/>
-      <c r="F1373" s="1"/>
-      <c r="G1373" s="1"/>
-    </row>
-    <row r="1374" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1374" s="4"/>
-      <c r="F1374" s="1"/>
-      <c r="G1374" s="1"/>
-    </row>
-    <row r="1375" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1375" s="4"/>
-      <c r="F1375" s="1"/>
-      <c r="G1375" s="1"/>
-    </row>
-    <row r="1376" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1376" s="4"/>
-      <c r="F1376" s="1"/>
-      <c r="G1376" s="1"/>
-    </row>
-    <row r="1377" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1377" s="4"/>
-      <c r="F1377" s="1"/>
-      <c r="G1377" s="1"/>
-    </row>
-    <row r="1378" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1378" s="4"/>
-      <c r="F1378" s="1"/>
-      <c r="G1378" s="1"/>
-    </row>
-    <row r="1379" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1379" s="4"/>
-      <c r="F1379" s="1"/>
-      <c r="G1379" s="1"/>
-    </row>
-    <row r="1380" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1380" s="4"/>
-      <c r="F1380" s="1"/>
-      <c r="G1380" s="1"/>
-    </row>
-    <row r="1381" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1381" s="4"/>
-      <c r="F1381" s="1"/>
-      <c r="G1381" s="1"/>
-    </row>
-    <row r="1382" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1382" s="4"/>
-      <c r="F1382" s="1"/>
-      <c r="G1382" s="1"/>
-    </row>
-    <row r="1383" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1383" s="4"/>
-      <c r="F1383" s="1"/>
-      <c r="G1383" s="1"/>
-    </row>
-    <row r="1384" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1384" s="4"/>
-      <c r="F1384" s="1"/>
-      <c r="G1384" s="1"/>
-    </row>
-    <row r="1385" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1385" s="4"/>
-      <c r="F1385" s="1"/>
-      <c r="G1385" s="1"/>
-    </row>
-    <row r="1386" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1386" s="4"/>
-      <c r="F1386" s="1"/>
-      <c r="G1386" s="1"/>
-    </row>
-    <row r="1387" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1387" s="4"/>
-      <c r="F1387" s="1"/>
-      <c r="G1387" s="1"/>
-    </row>
-    <row r="1388" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1388" s="4"/>
-      <c r="F1388" s="1"/>
-      <c r="G1388" s="1"/>
-    </row>
-    <row r="1389" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1389" s="4"/>
-      <c r="F1389" s="1"/>
-      <c r="G1389" s="1"/>
-    </row>
-    <row r="1390" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1390" s="4"/>
-      <c r="F1390" s="1"/>
-      <c r="G1390" s="1"/>
-    </row>
-    <row r="1391" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1391" s="4"/>
-      <c r="F1391" s="1"/>
-      <c r="G1391" s="1"/>
-    </row>
-    <row r="1392" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1392" s="4"/>
-      <c r="F1392" s="1"/>
-      <c r="G1392" s="1"/>
-    </row>
-    <row r="1393" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1393" s="4"/>
-      <c r="F1393" s="1"/>
-      <c r="G1393" s="1"/>
-    </row>
-    <row r="1394" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1394" s="4"/>
-      <c r="F1394" s="1"/>
-      <c r="G1394" s="1"/>
-    </row>
-    <row r="1395" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1395" s="4"/>
-      <c r="F1395" s="1"/>
-      <c r="G1395" s="1"/>
-    </row>
-    <row r="1396" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1396" s="4"/>
-      <c r="F1396" s="1"/>
-      <c r="G1396" s="1"/>
-    </row>
-    <row r="1397" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1397" s="4"/>
-      <c r="F1397" s="1"/>
-      <c r="G1397" s="1"/>
-    </row>
-    <row r="1398" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1398" s="4"/>
-      <c r="F1398" s="1"/>
-      <c r="G1398" s="1"/>
-    </row>
-    <row r="1399" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1399" s="4"/>
-      <c r="F1399" s="1"/>
-      <c r="G1399" s="1"/>
-    </row>
-    <row r="1400" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1400" s="4"/>
-      <c r="F1400" s="1"/>
-      <c r="G1400" s="1"/>
-    </row>
-    <row r="1401" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1401" s="4"/>
-      <c r="F1401" s="1"/>
-      <c r="G1401" s="1"/>
-    </row>
-    <row r="1402" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1402" s="4"/>
-      <c r="F1402" s="1"/>
-      <c r="G1402" s="1"/>
-    </row>
-    <row r="1403" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1403" s="4"/>
-      <c r="F1403" s="1"/>
-      <c r="G1403" s="1"/>
-    </row>
-    <row r="1404" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1404" s="4"/>
-      <c r="F1404" s="1"/>
-      <c r="G1404" s="1"/>
-    </row>
-    <row r="1405" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1405" s="4"/>
-      <c r="F1405" s="1"/>
-      <c r="G1405" s="1"/>
-    </row>
-    <row r="1406" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1406" s="4"/>
-      <c r="F1406" s="1"/>
-      <c r="G1406" s="1"/>
-    </row>
-    <row r="1407" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1407" s="4"/>
-      <c r="F1407" s="1"/>
-      <c r="G1407" s="1"/>
-    </row>
-    <row r="1408" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1408" s="4"/>
-      <c r="F1408" s="1"/>
-      <c r="G1408" s="1"/>
-    </row>
-    <row r="1409" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1409" s="4"/>
-      <c r="F1409" s="1"/>
-      <c r="G1409" s="1"/>
-    </row>
-    <row r="1410" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1410" s="4"/>
-      <c r="F1410" s="1"/>
-      <c r="G1410" s="1"/>
-    </row>
-    <row r="1411" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1411" s="4"/>
-      <c r="F1411" s="1"/>
-      <c r="G1411" s="1"/>
-    </row>
-    <row r="1412" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1412" s="4"/>
-      <c r="F1412" s="1"/>
-      <c r="G1412" s="1"/>
-    </row>
-    <row r="1413" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1413" s="4"/>
-      <c r="F1413" s="1"/>
-      <c r="G1413" s="1"/>
-    </row>
-    <row r="1414" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1414" s="4"/>
-      <c r="F1414" s="1"/>
-      <c r="G1414" s="1"/>
-    </row>
-    <row r="1415" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1415" s="4"/>
-      <c r="F1415" s="1"/>
-      <c r="G1415" s="1"/>
-    </row>
-    <row r="1416" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1416" s="4"/>
-      <c r="F1416" s="1"/>
-      <c r="G1416" s="1"/>
-    </row>
-    <row r="1417" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1417" s="4"/>
-      <c r="F1417" s="1"/>
-      <c r="G1417" s="1"/>
-    </row>
-    <row r="1418" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1418" s="4"/>
-      <c r="F1418" s="1"/>
-      <c r="G1418" s="1"/>
-    </row>
-    <row r="1419" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1419" s="4"/>
-      <c r="F1419" s="1"/>
-      <c r="G1419" s="1"/>
-    </row>
-    <row r="1420" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1420" s="4"/>
-      <c r="F1420" s="1"/>
-      <c r="G1420" s="1"/>
-    </row>
-    <row r="1421" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1421" s="4"/>
-      <c r="F1421" s="1"/>
-      <c r="G1421" s="1"/>
-    </row>
-    <row r="1422" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1422" s="4"/>
-      <c r="F1422" s="1"/>
-      <c r="G1422" s="1"/>
-    </row>
-    <row r="1423" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1423" s="4"/>
-      <c r="F1423" s="1"/>
-      <c r="G1423" s="1"/>
-    </row>
-    <row r="1424" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1424" s="4"/>
-      <c r="F1424" s="1"/>
-      <c r="G1424" s="1"/>
-    </row>
-    <row r="1425" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1425" s="4"/>
-      <c r="F1425" s="1"/>
-      <c r="G1425" s="1"/>
-    </row>
-    <row r="1426" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1426" s="4"/>
-      <c r="F1426" s="1"/>
-      <c r="G1426" s="1"/>
-    </row>
-    <row r="1427" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1427" s="4"/>
-      <c r="F1427" s="1"/>
-      <c r="G1427" s="1"/>
-    </row>
-    <row r="1428" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1428" s="4"/>
-      <c r="F1428" s="1"/>
-      <c r="G1428" s="1"/>
-    </row>
-    <row r="1429" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1429" s="4"/>
-      <c r="F1429" s="1"/>
-      <c r="G1429" s="1"/>
-    </row>
-    <row r="1430" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1430" s="4"/>
-      <c r="F1430" s="1"/>
-      <c r="G1430" s="1"/>
-    </row>
-    <row r="1431" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1431" s="4"/>
-      <c r="F1431" s="1"/>
-      <c r="G1431" s="1"/>
-    </row>
-    <row r="1432" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1432" s="4"/>
-      <c r="F1432" s="1"/>
-      <c r="G1432" s="1"/>
-    </row>
-    <row r="1433" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1433" s="4"/>
-      <c r="F1433" s="1"/>
-      <c r="G1433" s="1"/>
-    </row>
-    <row r="1434" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1434" s="4"/>
-      <c r="F1434" s="1"/>
-      <c r="G1434" s="1"/>
-    </row>
-    <row r="1435" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1435" s="4"/>
-      <c r="F1435" s="1"/>
-      <c r="G1435" s="1"/>
-    </row>
-    <row r="1436" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1436" s="4"/>
-      <c r="F1436" s="1"/>
-      <c r="G1436" s="1"/>
-    </row>
-    <row r="1437" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1437" s="4"/>
-      <c r="F1437" s="1"/>
-      <c r="G1437" s="1"/>
-    </row>
-    <row r="1438" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1438" s="4"/>
-      <c r="F1438" s="1"/>
-      <c r="G1438" s="1"/>
-    </row>
-    <row r="1439" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1439" s="4"/>
-      <c r="F1439" s="1"/>
-      <c r="G1439" s="1"/>
-    </row>
-    <row r="1440" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1440" s="4"/>
-      <c r="F1440" s="1"/>
-      <c r="G1440" s="1"/>
-    </row>
-    <row r="1441" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1441" s="4"/>
-      <c r="F1441" s="1"/>
-      <c r="G1441" s="1"/>
-    </row>
-    <row r="1442" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1442" s="4"/>
-      <c r="F1442" s="1"/>
-      <c r="G1442" s="1"/>
-    </row>
-    <row r="1443" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1443" s="4"/>
-      <c r="F1443" s="1"/>
-      <c r="G1443" s="1"/>
-    </row>
-    <row r="1444" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1444" s="4"/>
-      <c r="F1444" s="1"/>
-      <c r="G1444" s="1"/>
-    </row>
-    <row r="1445" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1445" s="4"/>
-      <c r="F1445" s="1"/>
-      <c r="G1445" s="1"/>
-    </row>
-    <row r="1446" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1446" s="4"/>
-      <c r="F1446" s="1"/>
-      <c r="G1446" s="1"/>
-    </row>
-    <row r="1447" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1447" s="4"/>
-      <c r="F1447" s="1"/>
-      <c r="G1447" s="1"/>
-    </row>
-    <row r="1448" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1448" s="4"/>
-      <c r="F1448" s="1"/>
-      <c r="G1448" s="1"/>
-    </row>
-    <row r="1449" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1449" s="4"/>
-      <c r="F1449" s="1"/>
-      <c r="G1449" s="1"/>
-    </row>
-    <row r="1450" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1450" s="4"/>
-      <c r="F1450" s="1"/>
-      <c r="G1450" s="1"/>
-    </row>
-    <row r="1451" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1451" s="4"/>
-      <c r="F1451" s="1"/>
-      <c r="G1451" s="1"/>
-    </row>
-    <row r="1452" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1452" s="4"/>
-      <c r="F1452" s="1"/>
-      <c r="G1452" s="1"/>
-    </row>
-    <row r="1453" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1453" s="4"/>
-      <c r="F1453" s="1"/>
-      <c r="G1453" s="1"/>
-    </row>
-    <row r="1454" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1454" s="4"/>
-      <c r="F1454" s="1"/>
-      <c r="G1454" s="1"/>
-    </row>
-    <row r="1455" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1455" s="4"/>
-      <c r="F1455" s="1"/>
-      <c r="G1455" s="1"/>
-    </row>
-    <row r="1456" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1456" s="4"/>
-      <c r="F1456" s="1"/>
-      <c r="G1456" s="1"/>
-    </row>
-    <row r="1457" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1457" s="4"/>
-      <c r="F1457" s="1"/>
-      <c r="G1457" s="1"/>
-    </row>
-    <row r="1458" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1458" s="4"/>
-      <c r="F1458" s="1"/>
-      <c r="G1458" s="1"/>
-    </row>
-    <row r="1459" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1459" s="4"/>
-      <c r="F1459" s="1"/>
-      <c r="G1459" s="1"/>
-    </row>
-    <row r="1460" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="A1200" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1200" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1200">
+        <v>95</v>
+      </c>
+      <c r="D1200">
+        <v>5.4</v>
+      </c>
+      <c r="E1200">
+        <v>25</v>
+      </c>
+      <c r="F1200" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G1200" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1201" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1201" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1201">
+        <v>96</v>
+      </c>
+      <c r="D1201">
+        <v>6.4</v>
+      </c>
+      <c r="E1201">
+        <v>24.5</v>
+      </c>
+      <c r="F1201" s="1">
+        <v>20.2</v>
+      </c>
+      <c r="G1201" s="1">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1202" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1202" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1202">
+        <v>97</v>
+      </c>
+      <c r="D1202">
+        <v>11</v>
+      </c>
+      <c r="E1202">
+        <v>27.7</v>
+      </c>
+      <c r="F1202" s="1">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G1202" s="1">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1203" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1203" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1203">
+        <v>98</v>
+      </c>
+      <c r="D1203">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E1203">
+        <v>28.9</v>
+      </c>
+      <c r="F1203" s="1">
+        <v>16</v>
+      </c>
+      <c r="G1203" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1204" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1204" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1204">
+        <v>99</v>
+      </c>
+      <c r="D1204">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E1204">
+        <v>30.2</v>
+      </c>
+      <c r="F1204" s="1">
+        <v>15.7</v>
+      </c>
+      <c r="G1204" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1205" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1205" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1205">
+        <v>100</v>
+      </c>
+      <c r="D1205">
+        <v>15.8</v>
+      </c>
+      <c r="E1205">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="F1205" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1205" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1206" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1206" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1206">
+        <v>101</v>
+      </c>
+      <c r="D1206">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E1206">
+        <v>28</v>
+      </c>
+      <c r="F1206" s="1">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G1206" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1207" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1207" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1207">
+        <v>102</v>
+      </c>
+      <c r="D1207">
+        <v>20.5</v>
+      </c>
+      <c r="E1207">
+        <v>24.4</v>
+      </c>
+      <c r="F1207" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="G1207" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1208" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1208" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1208">
+        <v>103</v>
+      </c>
+      <c r="D1208">
+        <v>19.8</v>
+      </c>
+      <c r="E1208">
+        <v>24.8</v>
+      </c>
+      <c r="F1208" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="G1208" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1209" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1209" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1209">
+        <v>104</v>
+      </c>
+      <c r="D1209">
+        <v>19</v>
+      </c>
+      <c r="E1209">
+        <v>26.5</v>
+      </c>
+      <c r="F1209" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="G1209" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1210" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1210" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1210">
+        <v>105</v>
+      </c>
+      <c r="D1210">
+        <v>19.8</v>
+      </c>
+      <c r="E1210">
+        <v>28.6</v>
+      </c>
+      <c r="F1210" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="G1210" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1211" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1211" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1211">
+        <v>106</v>
+      </c>
+      <c r="D1211">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E1211">
+        <v>30.4</v>
+      </c>
+      <c r="F1211" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="G1211" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1212" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1212" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1212">
+        <v>107</v>
+      </c>
+      <c r="D1212">
+        <v>4.7</v>
+      </c>
+      <c r="E1212">
+        <v>24.3</v>
+      </c>
+      <c r="F1212" s="1">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G1212" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1213" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1213" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1213">
+        <v>108</v>
+      </c>
+      <c r="D1213">
+        <v>15.2</v>
+      </c>
+      <c r="E1213">
+        <v>25.9</v>
+      </c>
+      <c r="F1213" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="G1213" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1214" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1214" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1214">
+        <v>109</v>
+      </c>
+      <c r="D1214">
+        <v>19</v>
+      </c>
+      <c r="E1214">
+        <v>25.7</v>
+      </c>
+      <c r="F1214" s="1">
+        <v>11</v>
+      </c>
+      <c r="G1214" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1215" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1215" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1215">
+        <v>110</v>
+      </c>
+      <c r="D1215">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E1215">
+        <v>28</v>
+      </c>
+      <c r="F1215" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G1215" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1216" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1216" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1216">
+        <v>111</v>
+      </c>
+      <c r="D1216">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="E1216">
+        <v>30</v>
+      </c>
+      <c r="F1216" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G1216" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1217" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1217" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1217">
+        <v>112</v>
+      </c>
+      <c r="D1217">
+        <v>10.7</v>
+      </c>
+      <c r="E1217">
+        <v>22.7</v>
+      </c>
+      <c r="F1217" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="G1217" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1218" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1218" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1218">
+        <v>113</v>
+      </c>
+      <c r="D1218">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E1218">
+        <v>25</v>
+      </c>
+      <c r="F1218" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G1218" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1219" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1219" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1219">
+        <v>114</v>
+      </c>
+      <c r="D1219">
+        <v>19.2</v>
+      </c>
+      <c r="E1219">
+        <v>25</v>
+      </c>
+      <c r="F1219" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="G1219" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1220" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1220" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1220">
+        <v>115</v>
+      </c>
+      <c r="D1220">
+        <v>18.3</v>
+      </c>
+      <c r="E1220">
+        <v>26.4</v>
+      </c>
+      <c r="F1220" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="G1220" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1221" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1221" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1221">
+        <v>116</v>
+      </c>
+      <c r="D1221">
+        <v>16.7</v>
+      </c>
+      <c r="E1221">
+        <v>25.9</v>
+      </c>
+      <c r="F1221" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="G1221" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1222" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1222" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1222">
+        <v>117</v>
+      </c>
+      <c r="D1222">
+        <v>16.7</v>
+      </c>
+      <c r="E1222">
+        <v>25.4</v>
+      </c>
+      <c r="F1222" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="G1222" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1223" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1223" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1223">
+        <v>118</v>
+      </c>
+      <c r="D1223">
+        <v>13.3</v>
+      </c>
+      <c r="E1223">
+        <v>25.4</v>
+      </c>
+      <c r="F1223" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="G1223" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1224" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1224" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1224">
+        <v>119</v>
+      </c>
+      <c r="D1224">
+        <v>11.6</v>
+      </c>
+      <c r="E1224">
+        <v>24.7</v>
+      </c>
+      <c r="F1224" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="G1224" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1225" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1225" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1225">
+        <v>120</v>
+      </c>
+      <c r="D1225">
+        <v>8</v>
+      </c>
+      <c r="E1225">
+        <v>24.7</v>
+      </c>
+      <c r="F1225" s="1">
+        <v>12.1</v>
+      </c>
+      <c r="G1225" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1226" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1226" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1226">
+        <v>121</v>
+      </c>
+      <c r="D1226">
+        <v>7.8</v>
+      </c>
+      <c r="E1226">
+        <v>23.4</v>
+      </c>
+      <c r="F1226" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="G1226" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1227" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1227" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1227">
+        <v>122</v>
+      </c>
+      <c r="D1227">
+        <v>9.1</v>
+      </c>
+      <c r="E1227">
+        <v>23.3</v>
+      </c>
+      <c r="F1227" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="G1227" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1228" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1228" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1228">
+        <v>123</v>
+      </c>
+      <c r="D1228">
+        <v>15.7</v>
+      </c>
+      <c r="E1228">
+        <v>25.8</v>
+      </c>
+      <c r="F1228" s="1">
+        <v>12.1</v>
+      </c>
+      <c r="G1228" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1229" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1229" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1229">
+        <v>124</v>
+      </c>
+      <c r="D1229">
+        <v>13.1</v>
+      </c>
+      <c r="E1229">
+        <v>26.1</v>
+      </c>
+      <c r="F1229" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="G1229" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1230" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1230" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1230">
+        <v>125</v>
+      </c>
+      <c r="D1230">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E1230">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F1230" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="G1230" s="1">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1231" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1231" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1231">
+        <v>126</v>
+      </c>
+      <c r="D1231">
+        <v>11.4</v>
+      </c>
+      <c r="E1231">
+        <v>21.9</v>
+      </c>
+      <c r="F1231" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="G1231" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1232" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1232" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1232">
+        <v>127</v>
+      </c>
+      <c r="D1232">
+        <v>10.8</v>
+      </c>
+      <c r="E1232">
+        <v>24.8</v>
+      </c>
+      <c r="F1232" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="G1232" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1233" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1233" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1233">
+        <v>128</v>
+      </c>
+      <c r="D1233">
+        <v>14.7</v>
+      </c>
+      <c r="E1233">
+        <v>27.5</v>
+      </c>
+      <c r="F1233" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="G1233" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1234" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1234" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1234">
+        <v>129</v>
+      </c>
+      <c r="D1234">
+        <v>10.7</v>
+      </c>
+      <c r="E1234">
+        <v>26.1</v>
+      </c>
+      <c r="F1234" s="1">
+        <v>13.8</v>
+      </c>
+      <c r="G1234" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1235" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1235" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1235">
+        <v>130</v>
+      </c>
+      <c r="D1235">
+        <v>14.8</v>
+      </c>
+      <c r="E1235">
+        <v>28.6</v>
+      </c>
+      <c r="F1235" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="G1235" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1236" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1236" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1236">
+        <v>131</v>
+      </c>
+      <c r="D1236">
+        <v>14.7</v>
+      </c>
+      <c r="E1236">
+        <v>26.2</v>
+      </c>
+      <c r="F1236" s="1">
+        <v>15.3</v>
+      </c>
+      <c r="G1236" s="1">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1237" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1237" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1237">
+        <v>132</v>
+      </c>
+      <c r="D1237">
+        <v>5.3</v>
+      </c>
+      <c r="E1237">
+        <v>23.4</v>
+      </c>
+      <c r="F1237" s="1">
+        <v>16</v>
+      </c>
+      <c r="G1237" s="1">
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1238" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1238" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1238">
+        <v>133</v>
+      </c>
+      <c r="D1238">
+        <v>14.7</v>
+      </c>
+      <c r="E1238">
+        <v>22.8</v>
+      </c>
+      <c r="F1238" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="G1238" s="1">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1239" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1239" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1239">
+        <v>134</v>
+      </c>
+      <c r="D1239">
+        <v>17</v>
+      </c>
+      <c r="E1239">
+        <v>23.4</v>
+      </c>
+      <c r="F1239" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="G1239" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1240" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1240" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1240">
+        <v>135</v>
+      </c>
+      <c r="D1240">
+        <v>16.8</v>
+      </c>
+      <c r="E1240">
+        <v>23.1</v>
+      </c>
+      <c r="F1240" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="G1240" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1241" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1241" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1241">
+        <v>136</v>
+      </c>
+      <c r="D1241">
+        <v>16.3</v>
+      </c>
+      <c r="E1241">
+        <v>20.8</v>
+      </c>
+      <c r="F1241" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G1241" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1242" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1242" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1242">
+        <v>137</v>
+      </c>
+      <c r="D1242">
+        <v>16.2</v>
+      </c>
+      <c r="E1242">
+        <v>22.4</v>
+      </c>
+      <c r="F1242" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G1242" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1243" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1243" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1243">
+        <v>138</v>
+      </c>
+      <c r="D1243">
+        <v>16</v>
+      </c>
+      <c r="E1243">
+        <v>22.7</v>
+      </c>
+      <c r="F1243" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="G1243" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1244" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1244" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1244">
+        <v>139</v>
+      </c>
+      <c r="D1244">
+        <v>11.4</v>
+      </c>
+      <c r="E1244">
+        <v>22.7</v>
+      </c>
+      <c r="F1244" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G1244" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1245" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1245" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1245">
+        <v>140</v>
+      </c>
+      <c r="D1245">
+        <v>14.9</v>
+      </c>
+      <c r="E1245">
+        <v>23.8</v>
+      </c>
+      <c r="F1245" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="G1245" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1246" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1246" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1246">
+        <v>141</v>
+      </c>
+      <c r="D1246">
+        <v>14.5</v>
+      </c>
+      <c r="E1246">
+        <v>22.8</v>
+      </c>
+      <c r="F1246" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="G1246" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1247" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1247" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1247">
+        <v>142</v>
+      </c>
+      <c r="D1247">
+        <v>13.8</v>
+      </c>
+      <c r="E1247">
+        <v>22.9</v>
+      </c>
+      <c r="F1247" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="G1247" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1248" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1248" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1248">
+        <v>143</v>
+      </c>
+      <c r="D1248">
+        <v>14.2</v>
+      </c>
+      <c r="E1248">
+        <v>23.4</v>
+      </c>
+      <c r="F1248" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="G1248" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1249" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1249" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1249">
+        <v>144</v>
+      </c>
+      <c r="D1249">
+        <v>14.3</v>
+      </c>
+      <c r="E1249">
+        <v>23.1</v>
+      </c>
+      <c r="F1249" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G1249" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1250" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1250" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1250">
+        <v>145</v>
+      </c>
+      <c r="D1250">
+        <v>8.9</v>
+      </c>
+      <c r="E1250">
+        <v>25.6</v>
+      </c>
+      <c r="F1250" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="G1250" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1251" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1251" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1251">
+        <v>146</v>
+      </c>
+      <c r="D1251">
+        <v>13.2</v>
+      </c>
+      <c r="E1251">
+        <v>26.1</v>
+      </c>
+      <c r="F1251" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G1251" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1252" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1252" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1252">
+        <v>147</v>
+      </c>
+      <c r="D1252">
+        <v>14.5</v>
+      </c>
+      <c r="E1252">
+        <v>24</v>
+      </c>
+      <c r="F1252" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="G1252" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1253" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1253" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1253">
+        <v>148</v>
+      </c>
+      <c r="D1253">
+        <v>15.6</v>
+      </c>
+      <c r="E1253">
+        <v>22.2</v>
+      </c>
+      <c r="F1253" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="G1253" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1254" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1254" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1254">
+        <v>149</v>
+      </c>
+      <c r="D1254">
+        <v>11.9</v>
+      </c>
+      <c r="E1254">
+        <v>21</v>
+      </c>
+      <c r="F1254" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="G1254" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1255" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1255" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1255">
+        <v>150</v>
+      </c>
+      <c r="D1255">
+        <v>13.1</v>
+      </c>
+      <c r="E1255">
+        <v>21.9</v>
+      </c>
+      <c r="F1255" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="G1255" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1256" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1256" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1256">
+        <v>151</v>
+      </c>
+      <c r="D1256">
+        <v>11.4</v>
+      </c>
+      <c r="E1256">
+        <v>22.4</v>
+      </c>
+      <c r="F1256" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="G1256" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1257" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1257" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1257">
+        <v>152</v>
+      </c>
+      <c r="D1257">
+        <v>11.2</v>
+      </c>
+      <c r="E1257">
+        <v>22.8</v>
+      </c>
+      <c r="F1257" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="G1257" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1258" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1258" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1258">
+        <v>153</v>
+      </c>
+      <c r="D1258">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E1258">
+        <v>23.4</v>
+      </c>
+      <c r="F1258" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="G1258" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1259" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1259" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1259">
+        <v>154</v>
+      </c>
+      <c r="D1259">
+        <v>5.6</v>
+      </c>
+      <c r="E1259">
+        <v>16.8</v>
+      </c>
+      <c r="F1259" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="G1259" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1260" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1260" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1260">
+        <v>155</v>
+      </c>
+      <c r="D1260">
+        <v>10.7</v>
+      </c>
+      <c r="E1260">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F1260" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="G1260" s="1">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1261" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1261" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1261">
+        <v>156</v>
+      </c>
+      <c r="D1261">
+        <v>13.5</v>
+      </c>
+      <c r="E1261">
+        <v>22.1</v>
+      </c>
+      <c r="F1261" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="G1261" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1262" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1262" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1262">
+        <v>157</v>
+      </c>
+      <c r="D1262">
+        <v>14.3</v>
+      </c>
+      <c r="E1262">
+        <v>21.8</v>
+      </c>
+      <c r="F1262" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="G1262" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1263" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1263" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1263">
+        <v>158</v>
+      </c>
+      <c r="D1263">
+        <v>14.2</v>
+      </c>
+      <c r="E1263">
+        <v>21.5</v>
+      </c>
+      <c r="F1263" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="G1263" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1264" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1264" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1264">
+        <v>159</v>
+      </c>
+      <c r="D1264">
+        <v>9.9</v>
+      </c>
+      <c r="E1264">
+        <v>22.7</v>
+      </c>
+      <c r="F1264" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="G1264" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1265" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1265" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1265">
+        <v>160</v>
+      </c>
+      <c r="D1265">
+        <v>10.4</v>
+      </c>
+      <c r="E1265">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F1265" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="G1265" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1266" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1266" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1266">
+        <v>161</v>
+      </c>
+      <c r="D1266">
+        <v>13</v>
+      </c>
+      <c r="E1266">
+        <v>19</v>
+      </c>
+      <c r="F1266" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="G1266" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1267" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1267" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1267">
+        <v>162</v>
+      </c>
+      <c r="D1267">
+        <v>13.1</v>
+      </c>
+      <c r="E1267">
+        <v>19.5</v>
+      </c>
+      <c r="F1267" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="G1267" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1268" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1268" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1268">
+        <v>163</v>
+      </c>
+      <c r="D1268">
+        <v>12.2</v>
+      </c>
+      <c r="E1268">
+        <v>22.3</v>
+      </c>
+      <c r="F1268" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="G1268" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1269" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1269" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1269">
+        <v>164</v>
+      </c>
+      <c r="D1269">
+        <v>12.9</v>
+      </c>
+      <c r="E1269">
+        <v>22.3</v>
+      </c>
+      <c r="F1269" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="G1269" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1270" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1270" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1270">
+        <v>165</v>
+      </c>
+      <c r="D1270">
+        <v>12.1</v>
+      </c>
+      <c r="E1270">
+        <v>23.2</v>
+      </c>
+      <c r="F1270" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="G1270" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1271" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1271" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1271">
+        <v>166</v>
+      </c>
+      <c r="D1271">
+        <v>11.5</v>
+      </c>
+      <c r="E1271">
+        <v>20.8</v>
+      </c>
+      <c r="F1271" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="G1271" s="1">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1272" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1272" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1272">
+        <v>167</v>
+      </c>
+      <c r="D1272">
+        <v>11.4</v>
+      </c>
+      <c r="E1272">
+        <v>22.6</v>
+      </c>
+      <c r="F1272" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G1272" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1273" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1273" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1273">
+        <v>168</v>
+      </c>
+      <c r="D1273">
+        <v>13.7</v>
+      </c>
+      <c r="E1273">
+        <v>22.8</v>
+      </c>
+      <c r="F1273" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="G1273" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1274" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1274" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1274">
+        <v>169</v>
+      </c>
+      <c r="D1274">
+        <v>13.7</v>
+      </c>
+      <c r="E1274">
+        <v>20.6</v>
+      </c>
+      <c r="F1274" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="G1274" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1275" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1275" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1275">
+        <v>170</v>
+      </c>
+      <c r="D1275">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E1275">
+        <v>18.5</v>
+      </c>
+      <c r="F1275" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="G1275" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1276" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1276" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1276">
+        <v>171</v>
+      </c>
+      <c r="D1276">
+        <v>13.3</v>
+      </c>
+      <c r="E1276">
+        <v>22.5</v>
+      </c>
+      <c r="F1276" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G1276" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1277" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1277" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1277">
+        <v>172</v>
+      </c>
+      <c r="D1277">
+        <v>13.6</v>
+      </c>
+      <c r="E1277">
+        <v>22.4</v>
+      </c>
+      <c r="F1277" s="1">
+        <v>6</v>
+      </c>
+      <c r="G1277" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1278" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1278" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1278">
+        <v>173</v>
+      </c>
+      <c r="D1278">
+        <v>11.9</v>
+      </c>
+      <c r="E1278">
+        <v>21.9</v>
+      </c>
+      <c r="F1278" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="G1278" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1279" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1279" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1279">
+        <v>174</v>
+      </c>
+      <c r="D1279">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E1279">
+        <v>21.5</v>
+      </c>
+      <c r="F1279" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="G1279" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1280" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1280" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1280">
+        <v>175</v>
+      </c>
+      <c r="D1280">
+        <v>5.5</v>
+      </c>
+      <c r="E1280">
+        <v>20.6</v>
+      </c>
+      <c r="F1280" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G1280" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1281" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1281" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1281">
+        <v>176</v>
+      </c>
+      <c r="D1281">
+        <v>4.3</v>
+      </c>
+      <c r="E1281">
+        <v>18.8</v>
+      </c>
+      <c r="F1281" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="G1281" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1282" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1282" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1282">
+        <v>177</v>
+      </c>
+      <c r="D1282">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E1282">
+        <v>18.2</v>
+      </c>
+      <c r="F1282" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1282" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1283" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1283" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1283">
+        <v>178</v>
+      </c>
+      <c r="D1283">
+        <v>11.4</v>
+      </c>
+      <c r="E1283">
+        <v>21.7</v>
+      </c>
+      <c r="F1283" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="G1283" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1284" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1284" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1284">
+        <v>179</v>
+      </c>
+      <c r="D1284">
+        <v>12.8</v>
+      </c>
+      <c r="E1284">
+        <v>21.3</v>
+      </c>
+      <c r="F1284" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G1284" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1285" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1285" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1285">
+        <v>180</v>
+      </c>
+      <c r="D1285">
+        <v>12.1</v>
+      </c>
+      <c r="E1285">
+        <v>21.6</v>
+      </c>
+      <c r="F1285" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="G1285" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1286" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1286" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1286">
+        <v>181</v>
+      </c>
+      <c r="D1286">
+        <v>6.3</v>
+      </c>
+      <c r="E1286">
+        <v>21.5</v>
+      </c>
+      <c r="F1286" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="G1286" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1287" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1287" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1287">
+        <v>182</v>
+      </c>
+      <c r="D1287">
+        <v>4.7</v>
+      </c>
+      <c r="E1287">
+        <v>21.6</v>
+      </c>
+      <c r="F1287" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G1287" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1288" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1288" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1288">
+        <v>183</v>
+      </c>
+      <c r="D1288">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E1288">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F1288" s="1">
+        <v>14.9</v>
+      </c>
+      <c r="G1288" s="1">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1289" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1289" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1289">
+        <v>184</v>
+      </c>
+      <c r="D1289">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E1289">
+        <v>17.5</v>
+      </c>
+      <c r="F1289" s="1">
+        <v>15.4</v>
+      </c>
+      <c r="G1289" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1290" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1290" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1290">
+        <v>185</v>
+      </c>
+      <c r="D1290">
+        <v>12.3</v>
+      </c>
+      <c r="E1290">
+        <v>22.3</v>
+      </c>
+      <c r="F1290" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="G1290" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1291" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1291" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1291">
+        <v>186</v>
+      </c>
+      <c r="D1291">
+        <v>12.2</v>
+      </c>
+      <c r="E1291">
+        <v>18</v>
+      </c>
+      <c r="F1291" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="G1291" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1292" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1292" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1292">
+        <v>187</v>
+      </c>
+      <c r="D1292">
+        <v>7.9</v>
+      </c>
+      <c r="E1292">
+        <v>19.5</v>
+      </c>
+      <c r="F1292" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="G1292" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1293" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1293" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1293">
+        <v>188</v>
+      </c>
+      <c r="D1293">
+        <v>14.5</v>
+      </c>
+      <c r="E1293">
+        <v>20.8</v>
+      </c>
+      <c r="F1293" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="G1293" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1294" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1294" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1294">
+        <v>189</v>
+      </c>
+      <c r="D1294">
+        <v>6.1</v>
+      </c>
+      <c r="E1294">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F1294" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="G1294" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1295" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1295" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1295">
+        <v>190</v>
+      </c>
+      <c r="D1295">
+        <v>11</v>
+      </c>
+      <c r="E1295">
+        <v>22.2</v>
+      </c>
+      <c r="F1295" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="G1295" s="1">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1296" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1296" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1296">
+        <v>191</v>
+      </c>
+      <c r="D1296">
+        <v>13.6</v>
+      </c>
+      <c r="E1296">
+        <v>18</v>
+      </c>
+      <c r="F1296" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="G1296" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1297" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1297" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1297">
+        <v>192</v>
+      </c>
+      <c r="D1297">
+        <v>13.9</v>
+      </c>
+      <c r="E1297">
+        <v>20.9</v>
+      </c>
+      <c r="F1297" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="G1297" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1298" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1298" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1298">
+        <v>193</v>
+      </c>
+      <c r="D1298">
+        <v>11.2</v>
+      </c>
+      <c r="E1298">
+        <v>20.7</v>
+      </c>
+      <c r="F1298" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="G1298" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1299" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1299" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1299">
+        <v>194</v>
+      </c>
+      <c r="D1299">
+        <v>12.6</v>
+      </c>
+      <c r="E1299">
+        <v>21.9</v>
+      </c>
+      <c r="F1299" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="G1299" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1300" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1300" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1300">
+        <v>195</v>
+      </c>
+      <c r="D1300">
+        <v>7.4</v>
+      </c>
+      <c r="E1300">
+        <v>22.4</v>
+      </c>
+      <c r="F1300" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="G1300" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1301" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1301" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1301">
+        <v>196</v>
+      </c>
+      <c r="D1301">
+        <v>7.2</v>
+      </c>
+      <c r="E1301">
+        <v>23.6</v>
+      </c>
+      <c r="F1301" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="G1301" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1302" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1302" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1302">
+        <v>197</v>
+      </c>
+      <c r="D1302">
+        <v>7.3</v>
+      </c>
+      <c r="E1302">
+        <v>23.1</v>
+      </c>
+      <c r="F1302" s="1">
+        <v>11.9</v>
+      </c>
+      <c r="G1302" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1303" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1303" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1303">
+        <v>198</v>
+      </c>
+      <c r="D1303">
+        <v>14.4</v>
+      </c>
+      <c r="E1303">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F1303" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G1303" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1304" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1304" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1304">
+        <v>199</v>
+      </c>
+      <c r="D1304">
+        <v>15.8</v>
+      </c>
+      <c r="E1304">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F1304" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G1304" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1305" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1305" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1305">
+        <v>200</v>
+      </c>
+      <c r="D1305">
+        <v>14.4</v>
+      </c>
+      <c r="E1305">
+        <v>20.6</v>
+      </c>
+      <c r="F1305" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="G1305" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1306" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1306" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1306">
+        <v>201</v>
+      </c>
+      <c r="D1306">
+        <v>14</v>
+      </c>
+      <c r="E1306">
+        <v>18.8</v>
+      </c>
+      <c r="F1306" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G1306" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1307" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1307" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1307">
+        <v>202</v>
+      </c>
+      <c r="D1307">
+        <v>14.3</v>
+      </c>
+      <c r="E1307">
+        <v>15.5</v>
+      </c>
+      <c r="F1307" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="G1307" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1308" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1308" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1308">
+        <v>203</v>
+      </c>
+      <c r="D1308">
+        <v>14.7</v>
+      </c>
+      <c r="E1308">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F1308" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="G1308" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1309" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1309" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1309">
+        <v>204</v>
+      </c>
+      <c r="D1309">
+        <v>5.5</v>
+      </c>
+      <c r="E1309">
+        <v>16.8</v>
+      </c>
+      <c r="F1309" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G1309" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1310" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1310" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1310">
+        <v>205</v>
+      </c>
+      <c r="D1310">
+        <v>15.8</v>
+      </c>
+      <c r="E1310">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F1310" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G1310" s="1">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1311" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1311" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1311">
+        <v>206</v>
+      </c>
+      <c r="D1311">
+        <v>16.7</v>
+      </c>
+      <c r="E1311">
+        <v>19.3</v>
+      </c>
+      <c r="F1311" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="G1311" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1312" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1312" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1312">
+        <v>207</v>
+      </c>
+      <c r="D1312">
+        <v>14.8</v>
+      </c>
+      <c r="E1312">
+        <v>21.6</v>
+      </c>
+      <c r="F1312" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="G1312" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1313" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1313" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1313">
+        <v>208</v>
+      </c>
+      <c r="D1313">
+        <v>16.3</v>
+      </c>
+      <c r="E1313">
+        <v>22.7</v>
+      </c>
+      <c r="F1313" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="G1313" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1314" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1314" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1314">
+        <v>209</v>
+      </c>
+      <c r="D1314">
+        <v>15.6</v>
+      </c>
+      <c r="E1314">
+        <v>24.5</v>
+      </c>
+      <c r="F1314" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="G1314" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1315" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1315" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1315">
+        <v>210</v>
+      </c>
+      <c r="D1315">
+        <v>14.2</v>
+      </c>
+      <c r="E1315">
+        <v>23.4</v>
+      </c>
+      <c r="F1315" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="G1315" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1316" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1316" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1316">
+        <v>211</v>
+      </c>
+      <c r="D1316">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E1316">
+        <v>21.6</v>
+      </c>
+      <c r="F1316" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="G1316" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1317" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1317" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1317">
+        <v>212</v>
+      </c>
+      <c r="D1317">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E1317">
+        <v>23</v>
+      </c>
+      <c r="F1317" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="G1317" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1318" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1318" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1318">
+        <v>213</v>
+      </c>
+      <c r="D1318">
+        <v>16.7</v>
+      </c>
+      <c r="E1318">
+        <v>26.3</v>
+      </c>
+      <c r="F1318" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="G1318" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1319" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1319" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1319">
+        <v>214</v>
+      </c>
+      <c r="D1319">
+        <v>12.9</v>
+      </c>
+      <c r="E1319">
+        <v>26.3</v>
+      </c>
+      <c r="F1319" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="G1319" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1320" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1320" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1320">
+        <v>215</v>
+      </c>
+      <c r="D1320">
+        <v>5</v>
+      </c>
+      <c r="E1320">
+        <v>22.2</v>
+      </c>
+      <c r="F1320" s="1">
+        <v>16.3</v>
+      </c>
+      <c r="G1320" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1321" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1321" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1321">
+        <v>216</v>
+      </c>
+      <c r="D1321">
+        <v>17.3</v>
+      </c>
+      <c r="E1321">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F1321" s="1">
+        <v>9</v>
+      </c>
+      <c r="G1321" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1322" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1322" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1322">
+        <v>217</v>
+      </c>
+      <c r="D1322">
+        <v>16.8</v>
+      </c>
+      <c r="E1322">
+        <v>19.5</v>
+      </c>
+      <c r="F1322" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="G1322" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1323" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1323" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1323">
+        <v>218</v>
+      </c>
+      <c r="D1323">
+        <v>17.7</v>
+      </c>
+      <c r="E1323">
+        <v>22.1</v>
+      </c>
+      <c r="F1323" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="G1323" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1324" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1324" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1324">
+        <v>219</v>
+      </c>
+      <c r="D1324">
+        <v>15.2</v>
+      </c>
+      <c r="E1324">
+        <v>23.6</v>
+      </c>
+      <c r="F1324" s="1">
+        <v>3</v>
+      </c>
+      <c r="G1324" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1325" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1325" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1325">
+        <v>220</v>
+      </c>
+      <c r="D1325">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E1325">
+        <v>23.3</v>
+      </c>
+      <c r="F1325" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="G1325" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1326" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1326" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1326">
+        <v>221</v>
+      </c>
+      <c r="D1326">
+        <v>6.7</v>
+      </c>
+      <c r="E1326">
+        <v>20.3</v>
+      </c>
+      <c r="F1326" s="1">
+        <v>9</v>
+      </c>
+      <c r="G1326" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1327" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1327" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1327">
+        <v>222</v>
+      </c>
+      <c r="D1327">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E1327">
+        <v>22.7</v>
+      </c>
+      <c r="F1327" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="G1327" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1328" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1328" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1328">
+        <v>223</v>
+      </c>
+      <c r="D1328">
+        <v>14</v>
+      </c>
+      <c r="E1328">
+        <v>22.9</v>
+      </c>
+      <c r="F1328" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="G1328" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1329" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1329" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1329">
+        <v>224</v>
+      </c>
+      <c r="D1329">
+        <v>14.4</v>
+      </c>
+      <c r="E1329">
+        <v>25.4</v>
+      </c>
+      <c r="F1329" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="G1329" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1330" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1330" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1330">
+        <v>225</v>
+      </c>
+      <c r="D1330">
+        <v>12</v>
+      </c>
+      <c r="E1330">
+        <v>25.2</v>
+      </c>
+      <c r="F1330" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="G1330" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1331" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1331" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1331">
+        <v>226</v>
+      </c>
+      <c r="D1331">
+        <v>13</v>
+      </c>
+      <c r="E1331">
+        <v>25.1</v>
+      </c>
+      <c r="F1331" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="G1331" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1332" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1332" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1332">
+        <v>227</v>
+      </c>
+      <c r="D1332">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E1332">
+        <v>26.6</v>
+      </c>
+      <c r="F1332" s="1">
+        <v>10</v>
+      </c>
+      <c r="G1332" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1333" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1333" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1333">
+        <v>228</v>
+      </c>
+      <c r="D1333">
+        <v>15.9</v>
+      </c>
+      <c r="E1333">
+        <v>26.5</v>
+      </c>
+      <c r="F1333" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G1333" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1334" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1334" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1334">
+        <v>229</v>
+      </c>
+      <c r="D1334">
+        <v>18.8</v>
+      </c>
+      <c r="E1334">
+        <v>24.7</v>
+      </c>
+      <c r="F1334" s="1">
+        <v>9</v>
+      </c>
+      <c r="G1334" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1335" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1335" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1335">
+        <v>230</v>
+      </c>
+      <c r="D1335">
+        <v>11.3</v>
+      </c>
+      <c r="E1335">
+        <v>20.6</v>
+      </c>
+      <c r="F1335" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="G1335" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1336" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1336" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1336">
+        <v>231</v>
+      </c>
+      <c r="D1336">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E1336">
+        <v>23.2</v>
+      </c>
+      <c r="F1336" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="G1336" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1337" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1337" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1337">
+        <v>232</v>
+      </c>
+      <c r="D1337">
+        <v>14.6</v>
+      </c>
+      <c r="E1337">
+        <v>25.4</v>
+      </c>
+      <c r="F1337" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="G1337" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1338" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1338" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1338">
+        <v>233</v>
+      </c>
+      <c r="D1338">
+        <v>19.7</v>
+      </c>
+      <c r="E1338">
+        <v>27.6</v>
+      </c>
+      <c r="F1338" s="1">
+        <v>8</v>
+      </c>
+      <c r="G1338" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1339" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1339" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1339">
+        <v>234</v>
+      </c>
+      <c r="D1339">
+        <v>19</v>
+      </c>
+      <c r="E1339">
+        <v>27.1</v>
+      </c>
+      <c r="F1339" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="G1339" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1340" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1340" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1340">
+        <v>235</v>
+      </c>
+      <c r="D1340">
+        <v>14.6</v>
+      </c>
+      <c r="E1340">
+        <v>26.6</v>
+      </c>
+      <c r="F1340" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="G1340" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1341" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1341" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1341">
+        <v>236</v>
+      </c>
+      <c r="D1341">
+        <v>16.5</v>
+      </c>
+      <c r="E1341">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="F1341" s="1">
+        <v>12.5</v>
+      </c>
+      <c r="G1341" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1342" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1342" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1342">
+        <v>237</v>
+      </c>
+      <c r="D1342">
+        <v>20.7</v>
+      </c>
+      <c r="E1342">
+        <v>20.3</v>
+      </c>
+      <c r="F1342" s="1">
+        <v>7</v>
+      </c>
+      <c r="G1342" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1343" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1343" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1343">
+        <v>238</v>
+      </c>
+      <c r="D1343">
+        <v>20</v>
+      </c>
+      <c r="E1343">
+        <v>21.6</v>
+      </c>
+      <c r="F1343" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="G1343" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1344" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1344" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1344">
+        <v>239</v>
+      </c>
+      <c r="D1344">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E1344">
+        <v>22.9</v>
+      </c>
+      <c r="F1344" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="G1344" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1345" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1345" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1345">
+        <v>240</v>
+      </c>
+      <c r="D1345">
+        <v>21.4</v>
+      </c>
+      <c r="E1345">
+        <v>25.7</v>
+      </c>
+      <c r="F1345" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="G1345" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1346" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1346" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1346">
+        <v>241</v>
+      </c>
+      <c r="D1346">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E1346">
+        <v>26.2</v>
+      </c>
+      <c r="F1346" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1346" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1347" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1347" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1347">
+        <v>242</v>
+      </c>
+      <c r="D1347">
+        <v>18</v>
+      </c>
+      <c r="E1347">
+        <v>27.9</v>
+      </c>
+      <c r="F1347" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="G1347" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1348" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1348" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1348">
+        <v>243</v>
+      </c>
+      <c r="D1348">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="E1348">
+        <v>27.4</v>
+      </c>
+      <c r="F1348" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="G1348" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1349" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1349" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1349">
+        <v>244</v>
+      </c>
+      <c r="D1349">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E1349">
+        <v>27.4</v>
+      </c>
+      <c r="F1349" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G1349" s="1">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1350" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1350" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1350">
+        <v>245</v>
+      </c>
+      <c r="D1350">
+        <v>19.3</v>
+      </c>
+      <c r="E1350">
+        <v>25</v>
+      </c>
+      <c r="F1350" s="1">
+        <v>14.7</v>
+      </c>
+      <c r="G1350" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1351" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1351" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1351">
+        <v>246</v>
+      </c>
+      <c r="D1351">
+        <v>15.6</v>
+      </c>
+      <c r="E1351">
+        <v>24.3</v>
+      </c>
+      <c r="F1351" s="1">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G1351" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1352" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1352" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1352">
+        <v>247</v>
+      </c>
+      <c r="D1352">
+        <v>13.8</v>
+      </c>
+      <c r="E1352">
+        <v>25.8</v>
+      </c>
+      <c r="F1352" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="G1352" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1353" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1353" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1353">
+        <v>248</v>
+      </c>
+      <c r="D1353">
+        <v>10.1</v>
+      </c>
+      <c r="E1353">
+        <v>22.8</v>
+      </c>
+      <c r="F1353" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="G1353" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1354" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1354" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1354">
+        <v>249</v>
+      </c>
+      <c r="D1354">
+        <v>17.3</v>
+      </c>
+      <c r="E1354">
+        <v>23.8</v>
+      </c>
+      <c r="F1354" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="G1354" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1355" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1355" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1355">
+        <v>250</v>
+      </c>
+      <c r="D1355">
+        <v>21.9</v>
+      </c>
+      <c r="E1355">
+        <v>24.9</v>
+      </c>
+      <c r="F1355" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="G1355" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1356" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1356" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1356">
+        <v>251</v>
+      </c>
+      <c r="D1356">
+        <v>21.2</v>
+      </c>
+      <c r="E1356">
+        <v>24.6</v>
+      </c>
+      <c r="F1356" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="G1356" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1357" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1357" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1357">
+        <v>252</v>
+      </c>
+      <c r="D1357">
+        <v>22</v>
+      </c>
+      <c r="E1357">
+        <v>25.4</v>
+      </c>
+      <c r="F1357" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="G1357" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1358" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1358" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1358">
+        <v>253</v>
+      </c>
+      <c r="D1358">
+        <v>22.2</v>
+      </c>
+      <c r="E1358">
+        <v>30.2</v>
+      </c>
+      <c r="F1358" s="1">
+        <v>7</v>
+      </c>
+      <c r="G1358" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1359" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1359" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1359">
+        <v>254</v>
+      </c>
+      <c r="D1359">
+        <v>22.6</v>
+      </c>
+      <c r="E1359">
+        <v>29.9</v>
+      </c>
+      <c r="F1359" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="G1359" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1360" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1360" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1360">
+        <v>255</v>
+      </c>
+      <c r="D1360">
+        <v>21.9</v>
+      </c>
+      <c r="E1360">
+        <v>29.5</v>
+      </c>
+      <c r="F1360" s="1">
+        <v>6</v>
+      </c>
+      <c r="G1360" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1361" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1361" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1361">
+        <v>256</v>
+      </c>
+      <c r="D1361">
+        <v>14.3</v>
+      </c>
+      <c r="E1361">
+        <v>32</v>
+      </c>
+      <c r="F1361" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="G1361" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1362" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1362" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1362">
+        <v>257</v>
+      </c>
+      <c r="D1362">
+        <v>21.7</v>
+      </c>
+      <c r="E1362">
+        <v>22</v>
+      </c>
+      <c r="F1362" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="G1362" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1363" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1363" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1363">
+        <v>258</v>
+      </c>
+      <c r="D1363">
+        <v>21.8</v>
+      </c>
+      <c r="E1363">
+        <v>25.6</v>
+      </c>
+      <c r="F1363" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="G1363" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1364" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1364" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1364">
+        <v>259</v>
+      </c>
+      <c r="D1364">
+        <v>22.9</v>
+      </c>
+      <c r="E1364">
+        <v>24.4</v>
+      </c>
+      <c r="F1364" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="G1364" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1365" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1365" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1365">
+        <v>260</v>
+      </c>
+      <c r="D1365">
+        <v>21.3</v>
+      </c>
+      <c r="E1365">
+        <v>25.2</v>
+      </c>
+      <c r="F1365" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="G1365" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1366" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1366" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1366">
+        <v>261</v>
+      </c>
+      <c r="D1366">
+        <v>16.7</v>
+      </c>
+      <c r="E1366">
+        <v>28.7</v>
+      </c>
+      <c r="F1366" s="1">
+        <v>7</v>
+      </c>
+      <c r="G1366" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1367" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1367" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1367">
+        <v>262</v>
+      </c>
+      <c r="D1367">
+        <v>23.3</v>
+      </c>
+      <c r="E1367">
+        <v>30.8</v>
+      </c>
+      <c r="F1367" s="1">
+        <v>11.4</v>
+      </c>
+      <c r="G1367" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1368" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1368" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1368">
+        <v>263</v>
+      </c>
+      <c r="D1368">
+        <v>21.2</v>
+      </c>
+      <c r="E1368">
+        <v>32.6</v>
+      </c>
+      <c r="F1368" s="1">
+        <v>10.4</v>
+      </c>
+      <c r="G1368" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1369" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1369" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1369">
+        <v>264</v>
+      </c>
+      <c r="D1369">
+        <v>21.7</v>
+      </c>
+      <c r="E1369">
+        <v>21.4</v>
+      </c>
+      <c r="F1369" s="1">
+        <v>14.6</v>
+      </c>
+      <c r="G1369" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1370" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1370" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1370">
+        <v>265</v>
+      </c>
+      <c r="D1370">
+        <v>23.9</v>
+      </c>
+      <c r="E1370">
+        <v>23.6</v>
+      </c>
+      <c r="F1370" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="G1370" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1371" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1371" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1371">
+        <v>266</v>
+      </c>
+      <c r="D1371">
+        <v>23.6</v>
+      </c>
+      <c r="E1371">
+        <v>26</v>
+      </c>
+      <c r="F1371" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="G1371" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1372" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1372" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1372">
+        <v>267</v>
+      </c>
+      <c r="D1372">
+        <v>24.6</v>
+      </c>
+      <c r="E1372">
+        <v>30.2</v>
+      </c>
+      <c r="F1372" s="1">
+        <v>6</v>
+      </c>
+      <c r="G1372" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1373" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1373" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1373">
+        <v>268</v>
+      </c>
+      <c r="D1373">
+        <v>20.3</v>
+      </c>
+      <c r="E1373">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F1373" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="G1373" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1374" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1374" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1374">
+        <v>269</v>
+      </c>
+      <c r="D1374">
+        <v>15.4</v>
+      </c>
+      <c r="E1374">
+        <v>27.4</v>
+      </c>
+      <c r="F1374" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="G1374" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1375" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1375" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1375">
+        <v>270</v>
+      </c>
+      <c r="D1375">
+        <v>8.4</v>
+      </c>
+      <c r="E1375">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F1375" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="G1375" s="1">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1376" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1376" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1376">
+        <v>271</v>
+      </c>
+      <c r="D1376">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E1376">
+        <v>21.5</v>
+      </c>
+      <c r="F1376" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="G1376" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1377" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1377" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1377">
+        <v>272</v>
+      </c>
+      <c r="D1377">
+        <v>6.7</v>
+      </c>
+      <c r="E1377">
+        <v>22.4</v>
+      </c>
+      <c r="F1377" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="G1377" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1378" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1378" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1378">
+        <v>273</v>
+      </c>
+      <c r="D1378">
+        <v>12.7</v>
+      </c>
+      <c r="E1378">
+        <v>27</v>
+      </c>
+      <c r="F1378" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="G1378" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1379" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1379" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1379">
+        <v>274</v>
+      </c>
+      <c r="D1379">
+        <v>18.2</v>
+      </c>
+      <c r="E1379">
+        <v>28.8</v>
+      </c>
+      <c r="F1379" s="1">
+        <v>14</v>
+      </c>
+      <c r="G1379" s="1">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1380" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1380" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1380">
+        <v>275</v>
+      </c>
+      <c r="D1380">
+        <v>19.3</v>
+      </c>
+      <c r="E1380">
+        <v>28.9</v>
+      </c>
+      <c r="F1380" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="G1380" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1381" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1381" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1381">
+        <v>276</v>
+      </c>
+      <c r="D1381">
+        <v>24.4</v>
+      </c>
+      <c r="E1381">
+        <v>32</v>
+      </c>
+      <c r="F1381" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="G1381" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1382" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1382" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1382">
+        <v>277</v>
+      </c>
+      <c r="D1382">
+        <v>22.5</v>
+      </c>
+      <c r="E1382">
+        <v>36</v>
+      </c>
+      <c r="F1382" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="G1382" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1383" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1383" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1383">
+        <v>278</v>
+      </c>
+      <c r="D1383">
+        <v>27.1</v>
+      </c>
+      <c r="E1383">
+        <v>30.6</v>
+      </c>
+      <c r="F1383" s="1">
+        <v>12</v>
+      </c>
+      <c r="G1383" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1384" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1384" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1384">
+        <v>279</v>
+      </c>
+      <c r="D1384">
+        <v>26.5</v>
+      </c>
+      <c r="E1384">
+        <v>29.9</v>
+      </c>
+      <c r="F1384" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="G1384" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1385" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1385" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1385">
+        <v>280</v>
+      </c>
+      <c r="D1385">
+        <v>19.3</v>
+      </c>
+      <c r="E1385">
+        <v>29.6</v>
+      </c>
+      <c r="F1385" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="G1385" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1386" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1386" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1386">
+        <v>281</v>
+      </c>
+      <c r="D1386">
+        <v>23.9</v>
+      </c>
+      <c r="E1386">
+        <v>32.1</v>
+      </c>
+      <c r="F1386" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="G1386" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1387" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1387" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1387">
+        <v>282</v>
+      </c>
+      <c r="D1387">
+        <v>24.1</v>
+      </c>
+      <c r="E1387">
+        <v>31.9</v>
+      </c>
+      <c r="F1387" s="1">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="G1387" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1388" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1388" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1388">
+        <v>283</v>
+      </c>
+      <c r="D1388">
+        <v>23.8</v>
+      </c>
+      <c r="E1388">
+        <v>33.1</v>
+      </c>
+      <c r="F1388" s="1">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G1388" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1389" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1389" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1389">
+        <v>284</v>
+      </c>
+      <c r="D1389">
+        <v>16.5</v>
+      </c>
+      <c r="E1389">
+        <v>31.9</v>
+      </c>
+      <c r="F1389" s="1">
+        <v>16.3</v>
+      </c>
+      <c r="G1389" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1390" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1390" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1390">
+        <v>285</v>
+      </c>
+      <c r="D1390">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E1390">
+        <v>23.6</v>
+      </c>
+      <c r="F1390" s="1">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G1390" s="1">
+        <v>35.6</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1391" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1391" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1391">
+        <v>286</v>
+      </c>
+      <c r="D1391">
+        <v>8.4</v>
+      </c>
+      <c r="E1391">
+        <v>26.6</v>
+      </c>
+      <c r="F1391" s="1">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G1391" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1392" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1392" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1392">
+        <v>287</v>
+      </c>
+      <c r="D1392">
+        <v>7.8</v>
+      </c>
+      <c r="E1392">
+        <v>24.3</v>
+      </c>
+      <c r="F1392" s="1">
+        <v>18.3</v>
+      </c>
+      <c r="G1392" s="1">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1393" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1393" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1393">
+        <v>288</v>
+      </c>
+      <c r="D1393">
+        <v>22.8</v>
+      </c>
+      <c r="E1393">
+        <v>29.5</v>
+      </c>
+      <c r="F1393" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G1393" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1394" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1394" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1394">
+        <v>289</v>
+      </c>
+      <c r="D1394">
+        <v>29.2</v>
+      </c>
+      <c r="E1394">
+        <v>27.6</v>
+      </c>
+      <c r="F1394" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="G1394" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1395" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1395" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1395">
+        <v>290</v>
+      </c>
+      <c r="D1395">
+        <v>27.6</v>
+      </c>
+      <c r="E1395">
+        <v>30.1</v>
+      </c>
+      <c r="F1395" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="G1395" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1396" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1396" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1396">
+        <v>291</v>
+      </c>
+      <c r="D1396">
+        <v>14.5</v>
+      </c>
+      <c r="E1396">
+        <v>26.5</v>
+      </c>
+      <c r="F1396" s="1">
+        <v>14.8</v>
+      </c>
+      <c r="G1396" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1397" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1397" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1397">
+        <v>292</v>
+      </c>
+      <c r="D1397">
+        <v>26.4</v>
+      </c>
+      <c r="E1397">
+        <v>28.6</v>
+      </c>
+      <c r="F1397" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="G1397" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1398" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1398" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1398">
+        <v>293</v>
+      </c>
+      <c r="D1398">
+        <v>23.9</v>
+      </c>
+      <c r="E1398">
+        <v>29.9</v>
+      </c>
+      <c r="F1398" s="1">
+        <v>13.4</v>
+      </c>
+      <c r="G1398" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1399" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1399" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1399">
+        <v>294</v>
+      </c>
+      <c r="D1399">
+        <v>19.3</v>
+      </c>
+      <c r="E1399">
+        <v>28.8</v>
+      </c>
+      <c r="F1399" s="1">
+        <v>15.9</v>
+      </c>
+      <c r="G1399" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1400" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1400" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1400">
+        <v>295</v>
+      </c>
+      <c r="D1400">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E1400">
+        <v>29.8</v>
+      </c>
+      <c r="F1400" s="1">
+        <v>17</v>
+      </c>
+      <c r="G1400" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1401" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1401" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1401">
+        <v>296</v>
+      </c>
+      <c r="D1401">
+        <v>22</v>
+      </c>
+      <c r="E1401">
+        <v>33.1</v>
+      </c>
+      <c r="F1401" s="1">
+        <v>18.7</v>
+      </c>
+      <c r="G1401" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1402" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1402" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1402">
+        <v>297</v>
+      </c>
+      <c r="D1402">
+        <v>21.1</v>
+      </c>
+      <c r="E1402">
+        <v>33.6</v>
+      </c>
+      <c r="F1402" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G1402" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1403" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1403" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1403">
+        <v>298</v>
+      </c>
+      <c r="D1403">
+        <v>13.6</v>
+      </c>
+      <c r="E1403">
+        <v>26</v>
+      </c>
+      <c r="F1403" s="1">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G1403" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1404" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1404" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1404">
+        <v>299</v>
+      </c>
+      <c r="D1404">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="E1404">
+        <v>30.1</v>
+      </c>
+      <c r="F1404" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="G1404" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1405" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1405" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1405">
+        <v>300</v>
+      </c>
+      <c r="D1405">
+        <v>23.5</v>
+      </c>
+      <c r="E1405">
+        <v>31.1</v>
+      </c>
+      <c r="F1405" s="1">
+        <v>19.3</v>
+      </c>
+      <c r="G1405" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1406" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1406" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1406">
+        <v>301</v>
+      </c>
+      <c r="D1406">
+        <v>25.6</v>
+      </c>
+      <c r="E1406">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F1406" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="G1406" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1407" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1407" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1407">
+        <v>302</v>
+      </c>
+      <c r="D1407">
+        <v>13.4</v>
+      </c>
+      <c r="E1407">
+        <v>27.8</v>
+      </c>
+      <c r="F1407" s="1">
+        <v>21</v>
+      </c>
+      <c r="G1407" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1408" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1408" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1408">
+        <v>303</v>
+      </c>
+      <c r="D1408">
+        <v>24.7</v>
+      </c>
+      <c r="E1408">
+        <v>33.9</v>
+      </c>
+      <c r="F1408" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="G1408" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1409" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1409" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1409">
+        <v>304</v>
+      </c>
+      <c r="D1409">
+        <v>20.5</v>
+      </c>
+      <c r="E1409">
+        <v>25.3</v>
+      </c>
+      <c r="F1409" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="G1409" s="1">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1410" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1410" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1410">
+        <v>305</v>
+      </c>
+      <c r="D1410">
+        <v>11</v>
+      </c>
+      <c r="E1410">
+        <v>23.4</v>
+      </c>
+      <c r="F1410" s="1">
+        <v>10.9</v>
+      </c>
+      <c r="G1410" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1411" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1411" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1411">
+        <v>306</v>
+      </c>
+      <c r="D1411">
+        <v>13.1</v>
+      </c>
+      <c r="E1411">
+        <v>25.7</v>
+      </c>
+      <c r="F1411" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="G1411" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1412" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1412" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1412">
+        <v>307</v>
+      </c>
+      <c r="D1412">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E1412">
+        <v>25.8</v>
+      </c>
+      <c r="F1412" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="G1412" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1413" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1413" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1413">
+        <v>308</v>
+      </c>
+      <c r="D1413">
+        <v>21.4</v>
+      </c>
+      <c r="E1413">
+        <v>27.5</v>
+      </c>
+      <c r="F1413" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="G1413" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1414" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1414" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1414">
+        <v>309</v>
+      </c>
+      <c r="D1414">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E1414">
+        <v>26.1</v>
+      </c>
+      <c r="F1414" s="1">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="G1414" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1415" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1415" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1415">
+        <v>310</v>
+      </c>
+      <c r="D1415">
+        <v>15.9</v>
+      </c>
+      <c r="E1415">
+        <v>26.6</v>
+      </c>
+      <c r="F1415" s="1">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="G1415" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1416" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1416" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1416">
+        <v>311</v>
+      </c>
+      <c r="D1416">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E1416">
+        <v>29.2</v>
+      </c>
+      <c r="F1416" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="G1416" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1417" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1417" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1417">
+        <v>312</v>
+      </c>
+      <c r="D1417">
+        <v>9.4</v>
+      </c>
+      <c r="E1417">
+        <v>30.8</v>
+      </c>
+      <c r="F1417" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="G1417" s="1">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1418" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1418" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1418">
+        <v>313</v>
+      </c>
+      <c r="D1418">
+        <v>22</v>
+      </c>
+      <c r="E1418">
+        <v>31</v>
+      </c>
+      <c r="F1418" s="1">
+        <v>17.3</v>
+      </c>
+      <c r="G1418" s="1">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1419" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1419" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1419">
+        <v>314</v>
+      </c>
+      <c r="D1419">
+        <v>17.8</v>
+      </c>
+      <c r="E1419">
+        <v>32</v>
+      </c>
+      <c r="F1419" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="G1419" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1420" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1420" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1420">
+        <v>315</v>
+      </c>
+      <c r="D1420">
+        <v>11.4</v>
+      </c>
+      <c r="E1420">
+        <v>30</v>
+      </c>
+      <c r="F1420" s="1">
+        <v>21.4</v>
+      </c>
+      <c r="G1420" s="1">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1421" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1421" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1421">
+        <v>316</v>
+      </c>
+      <c r="D1421">
+        <v>15.7</v>
+      </c>
+      <c r="E1421">
+        <v>31.8</v>
+      </c>
+      <c r="F1421" s="1">
+        <v>22</v>
+      </c>
+      <c r="G1421" s="1">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1422" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1422" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1422">
+        <v>317</v>
+      </c>
+      <c r="D1422">
+        <v>30.5</v>
+      </c>
+      <c r="E1422">
+        <v>26.8</v>
+      </c>
+      <c r="F1422" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="G1422" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1423" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1423" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1423">
+        <v>318</v>
+      </c>
+      <c r="D1423">
+        <v>30.4</v>
+      </c>
+      <c r="E1423">
+        <v>28.6</v>
+      </c>
+      <c r="F1423" s="1">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G1423" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1424" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1424" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1424">
+        <v>319</v>
+      </c>
+      <c r="D1424">
+        <v>30.3</v>
+      </c>
+      <c r="E1424">
+        <v>30.8</v>
+      </c>
+      <c r="F1424" s="1">
+        <v>8.6</v>
+      </c>
+      <c r="G1424" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1425" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1425" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1425">
+        <v>320</v>
+      </c>
+      <c r="D1425">
+        <v>25.1</v>
+      </c>
+      <c r="E1425">
+        <v>30.5</v>
+      </c>
+      <c r="F1425" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="G1425" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1426" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1426" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1426">
+        <v>321</v>
+      </c>
+      <c r="D1426">
+        <v>19.5</v>
+      </c>
+      <c r="E1426">
+        <v>28.1</v>
+      </c>
+      <c r="F1426" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="G1426" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1427" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1427" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1427">
+        <v>322</v>
+      </c>
+      <c r="D1427">
+        <v>15.5</v>
+      </c>
+      <c r="E1427">
+        <v>27</v>
+      </c>
+      <c r="F1427" s="1">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G1427" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1428" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1428" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1428">
+        <v>323</v>
+      </c>
+      <c r="D1428">
+        <v>23.9</v>
+      </c>
+      <c r="E1428">
+        <v>30.1</v>
+      </c>
+      <c r="F1428" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="G1428" s="1">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1429" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1429" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1429">
+        <v>324</v>
+      </c>
+      <c r="D1429">
+        <v>23.4</v>
+      </c>
+      <c r="E1429">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F1429" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="G1429" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1430" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1430" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1430">
+        <v>325</v>
+      </c>
+      <c r="D1430">
+        <v>13.7</v>
+      </c>
+      <c r="E1430">
+        <v>26.1</v>
+      </c>
+      <c r="F1430" s="1">
+        <v>20.2</v>
+      </c>
+      <c r="G1430" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1431" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1431" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1431">
+        <v>326</v>
+      </c>
+      <c r="D1431">
+        <v>11.6</v>
+      </c>
+      <c r="E1431">
+        <v>25</v>
+      </c>
+      <c r="F1431" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="G1431" s="1">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1432" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1432" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1432">
+        <v>327</v>
+      </c>
+      <c r="D1432">
+        <v>14</v>
+      </c>
+      <c r="E1432">
+        <v>26.9</v>
+      </c>
+      <c r="F1432" s="1">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G1432" s="1">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1433" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1433" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1433">
+        <v>328</v>
+      </c>
+      <c r="D1433">
+        <v>9.9</v>
+      </c>
+      <c r="E1433">
+        <v>29</v>
+      </c>
+      <c r="F1433" s="1">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G1433" s="1">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1434" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1434" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1434">
+        <v>329</v>
+      </c>
+      <c r="D1434">
+        <v>12.4</v>
+      </c>
+      <c r="E1434">
+        <v>25.6</v>
+      </c>
+      <c r="F1434" s="1">
+        <v>19.8</v>
+      </c>
+      <c r="G1434" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1435" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1435" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1435">
+        <v>330</v>
+      </c>
+      <c r="D1435">
+        <v>12.9</v>
+      </c>
+      <c r="E1435">
+        <v>28.2</v>
+      </c>
+      <c r="F1435" s="1">
+        <v>21.7</v>
+      </c>
+      <c r="G1435" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1436" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1436" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1436">
+        <v>331</v>
+      </c>
+      <c r="D1436">
+        <v>13.5</v>
+      </c>
+      <c r="E1436">
+        <v>26.9</v>
+      </c>
+      <c r="F1436" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="G1436" s="1">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1437" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1437" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1437">
+        <v>332</v>
+      </c>
+      <c r="D1437">
+        <v>12.9</v>
+      </c>
+      <c r="E1437">
+        <v>25.9</v>
+      </c>
+      <c r="F1437" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G1437" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1438" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1438" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1438">
+        <v>333</v>
+      </c>
+      <c r="D1438">
+        <v>11.2</v>
+      </c>
+      <c r="E1438">
+        <v>27.3</v>
+      </c>
+      <c r="F1438" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="G1438" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1439" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1439" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1439">
+        <v>334</v>
+      </c>
+      <c r="D1439">
+        <v>8.5</v>
+      </c>
+      <c r="E1439">
+        <v>23.2</v>
+      </c>
+      <c r="F1439" s="1">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G1439" s="1">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1440" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1440" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1440">
+        <v>335</v>
+      </c>
+      <c r="D1440">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E1440">
+        <v>25.7</v>
+      </c>
+      <c r="F1440" s="1">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G1440" s="1">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1441" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1441" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1441">
+        <v>336</v>
+      </c>
+      <c r="D1441">
+        <v>20.6</v>
+      </c>
+      <c r="E1441">
+        <v>30.8</v>
+      </c>
+      <c r="F1441" s="1">
+        <v>20.9</v>
+      </c>
+      <c r="G1441" s="1">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1442" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1442" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1442">
+        <v>337</v>
+      </c>
+      <c r="D1442">
+        <v>27.3</v>
+      </c>
+      <c r="E1442">
+        <v>31.9</v>
+      </c>
+      <c r="F1442" s="1">
+        <v>19.2</v>
+      </c>
+      <c r="G1442" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1443" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1443" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1443">
+        <v>338</v>
+      </c>
+      <c r="D1443">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E1443">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="F1443" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="G1443" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1444" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1444" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1444">
+        <v>339</v>
+      </c>
+      <c r="D1444">
+        <v>26.5</v>
+      </c>
+      <c r="E1444">
+        <v>28.4</v>
+      </c>
+      <c r="F1444" s="1">
+        <v>17.8</v>
+      </c>
+      <c r="G1444" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1445" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1445" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1445">
+        <v>340</v>
+      </c>
+      <c r="D1445">
+        <v>22.1</v>
+      </c>
+      <c r="E1445">
+        <v>28.8</v>
+      </c>
+      <c r="F1445" s="1">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G1445" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1446" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1446" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1446">
+        <v>341</v>
+      </c>
+      <c r="D1446">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E1446">
+        <v>30.4</v>
+      </c>
+      <c r="F1446" s="1">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G1446" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1447" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1447" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1447">
+        <v>342</v>
+      </c>
+      <c r="D1447">
+        <v>11.6</v>
+      </c>
+      <c r="E1447">
+        <v>28.7</v>
+      </c>
+      <c r="F1447" s="1">
+        <v>21.3</v>
+      </c>
+      <c r="G1447" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1448" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1448" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1448">
+        <v>343</v>
+      </c>
+      <c r="D1448">
+        <v>25.4</v>
+      </c>
+      <c r="E1448">
+        <v>31.8</v>
+      </c>
+      <c r="F1448" s="1">
+        <v>17.3</v>
+      </c>
+      <c r="G1448" s="1">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1449" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1449" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1449">
+        <v>344</v>
+      </c>
+      <c r="D1449">
+        <v>25.5</v>
+      </c>
+      <c r="E1449">
+        <v>29.9</v>
+      </c>
+      <c r="F1449" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="G1449" s="1">
+        <v>10.6</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1450" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1450" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1450">
+        <v>345</v>
+      </c>
+      <c r="D1450">
+        <v>29.4</v>
+      </c>
+      <c r="E1450">
+        <v>30.1</v>
+      </c>
+      <c r="F1450" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="G1450" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1451" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1451" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1451">
+        <v>346</v>
+      </c>
+      <c r="D1451">
+        <v>21</v>
+      </c>
+      <c r="E1451">
+        <v>29.8</v>
+      </c>
+      <c r="F1451" s="1">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="G1451" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1452" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1452" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1452">
+        <v>347</v>
+      </c>
+      <c r="D1452">
+        <v>29.7</v>
+      </c>
+      <c r="E1452">
+        <v>29.9</v>
+      </c>
+      <c r="F1452" s="1">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G1452" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1453" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1453" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1453">
+        <v>348</v>
+      </c>
+      <c r="D1453">
+        <v>30.7</v>
+      </c>
+      <c r="E1453">
+        <v>30.6</v>
+      </c>
+      <c r="F1453" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="G1453" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1454" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1454" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1454">
+        <v>349</v>
+      </c>
+      <c r="D1454">
+        <v>30</v>
+      </c>
+      <c r="E1454">
+        <v>30.8</v>
+      </c>
+      <c r="F1454" s="1">
+        <v>15.3</v>
+      </c>
+      <c r="G1454" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1455" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1455" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1455">
+        <v>350</v>
+      </c>
+      <c r="D1455">
+        <v>23.8</v>
+      </c>
+      <c r="E1455">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="F1455" s="1">
+        <v>16.7</v>
+      </c>
+      <c r="G1455" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1456" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1456" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1456">
+        <v>351</v>
+      </c>
+      <c r="D1456">
+        <v>20</v>
+      </c>
+      <c r="E1456">
+        <v>31.4</v>
+      </c>
+      <c r="F1456" s="1">
+        <v>18.5</v>
+      </c>
+      <c r="G1456" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1457" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1457" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1457">
+        <v>352</v>
+      </c>
+      <c r="D1457">
+        <v>26.1</v>
+      </c>
+      <c r="E1457">
+        <v>31.2</v>
+      </c>
+      <c r="F1457" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="G1457" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1458" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1458" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1458">
+        <v>353</v>
+      </c>
+      <c r="D1458">
+        <v>26.8</v>
+      </c>
+      <c r="E1458">
+        <v>32</v>
+      </c>
+      <c r="F1458" s="1">
+        <v>18.7</v>
+      </c>
+      <c r="G1458" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1459" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1459" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1459">
+        <v>354</v>
+      </c>
+      <c r="D1459">
+        <v>24.7</v>
+      </c>
+      <c r="E1459">
+        <v>31.4</v>
+      </c>
+      <c r="F1459" s="1">
+        <v>17.3</v>
+      </c>
+      <c r="G1459" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1460" s="4"/>
       <c r="F1460" s="1"/>
       <c r="G1460" s="1"/>
     </row>
-    <row r="1461" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1461" s="4"/>
       <c r="F1461" s="1"/>
       <c r="G1461" s="1"/>
     </row>
-    <row r="1462" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1462" s="4"/>
       <c r="F1462" s="1"/>
       <c r="G1462" s="1"/>
     </row>
-    <row r="1463" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1463" s="4"/>
       <c r="F1463" s="1"/>
       <c r="G1463" s="1"/>
     </row>
-    <row r="1464" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1464" s="4"/>
       <c r="F1464" s="1"/>
       <c r="G1464" s="1"/>
     </row>
-    <row r="1465" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1465" s="4"/>
       <c r="F1465" s="1"/>
       <c r="G1465" s="1"/>
     </row>
-    <row r="1466" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1466" s="4"/>
       <c r="F1466" s="1"/>
       <c r="G1466" s="1"/>
     </row>
-    <row r="1467" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1467" s="4"/>
       <c r="F1467" s="1"/>
       <c r="G1467" s="1"/>
     </row>
-    <row r="1468" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1468" s="4"/>
       <c r="F1468" s="1"/>
       <c r="G1468" s="1"/>
     </row>
-    <row r="1469" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1469" s="4"/>
       <c r="F1469" s="1"/>
       <c r="G1469" s="1"/>
     </row>
-    <row r="1470" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1470" s="4"/>
       <c r="F1470" s="1"/>
       <c r="G1470" s="1"/>
     </row>
-    <row r="1471" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1471" s="4"/>
       <c r="F1471" s="1"/>
       <c r="G1471" s="1"/>
     </row>
-    <row r="1472" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1472" s="4"/>
       <c r="F1472" s="1"/>
       <c r="G1472" s="1"/>

--- a/Prototypes/Mungbean/GattonKylie.xlsx
+++ b/Prototypes/Mungbean/GattonKylie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9FA18C-6114-4F01-8841-633838BBECD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1B2E51-1D01-4916-B870-72C480941119}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2820" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kylie" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="18">
   <si>
     <t>site</t>
   </si>
@@ -933,7 +933,7 @@
   <dimension ref="A1:R4392"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1425" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C208" sqref="C208"/>
+      <selection activeCell="D1455" sqref="D1455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33897,7 +33897,7 @@
       <c r="D1438">
         <v>11.2</v>
       </c>
-      <c r="E1438">
+      <c r="E1438" s="1">
         <v>27.3</v>
       </c>
       <c r="F1438" s="1">
@@ -33920,7 +33920,7 @@
       <c r="D1439">
         <v>8.5</v>
       </c>
-      <c r="E1439">
+      <c r="E1439" s="1">
         <v>23.2</v>
       </c>
       <c r="F1439" s="1">
@@ -33943,7 +33943,7 @@
       <c r="D1440">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E1440">
+      <c r="E1440" s="1">
         <v>25.7</v>
       </c>
       <c r="F1440" s="1">
@@ -33966,7 +33966,7 @@
       <c r="D1441">
         <v>20.6</v>
       </c>
-      <c r="E1441">
+      <c r="E1441" s="1">
         <v>30.8</v>
       </c>
       <c r="F1441" s="1">
@@ -33989,7 +33989,7 @@
       <c r="D1442">
         <v>27.3</v>
       </c>
-      <c r="E1442">
+      <c r="E1442" s="1">
         <v>31.9</v>
       </c>
       <c r="F1442" s="1">
@@ -34012,7 +34012,7 @@
       <c r="D1443">
         <v>16.399999999999999</v>
       </c>
-      <c r="E1443">
+      <c r="E1443" s="1">
         <v>32.299999999999997</v>
       </c>
       <c r="F1443" s="1">
@@ -34035,7 +34035,7 @@
       <c r="D1444">
         <v>26.5</v>
       </c>
-      <c r="E1444">
+      <c r="E1444" s="1">
         <v>28.4</v>
       </c>
       <c r="F1444" s="1">
@@ -34058,7 +34058,7 @@
       <c r="D1445">
         <v>22.1</v>
       </c>
-      <c r="E1445">
+      <c r="E1445" s="1">
         <v>28.8</v>
       </c>
       <c r="F1445" s="1">
@@ -34081,7 +34081,7 @@
       <c r="D1446">
         <v>17.399999999999999</v>
       </c>
-      <c r="E1446">
+      <c r="E1446" s="1">
         <v>30.4</v>
       </c>
       <c r="F1446" s="1">
@@ -34104,7 +34104,7 @@
       <c r="D1447">
         <v>11.6</v>
       </c>
-      <c r="E1447">
+      <c r="E1447" s="1">
         <v>28.7</v>
       </c>
       <c r="F1447" s="1">
@@ -34127,7 +34127,7 @@
       <c r="D1448">
         <v>25.4</v>
       </c>
-      <c r="E1448">
+      <c r="E1448" s="1">
         <v>31.8</v>
       </c>
       <c r="F1448" s="1">
@@ -34150,7 +34150,7 @@
       <c r="D1449">
         <v>25.5</v>
       </c>
-      <c r="E1449">
+      <c r="E1449" s="1">
         <v>29.9</v>
       </c>
       <c r="F1449" s="1">
@@ -34173,7 +34173,7 @@
       <c r="D1450">
         <v>29.4</v>
       </c>
-      <c r="E1450">
+      <c r="E1450" s="1">
         <v>30.1</v>
       </c>
       <c r="F1450" s="1">
@@ -34196,7 +34196,7 @@
       <c r="D1451">
         <v>21</v>
       </c>
-      <c r="E1451">
+      <c r="E1451" s="1">
         <v>29.8</v>
       </c>
       <c r="F1451" s="1">
@@ -34219,7 +34219,7 @@
       <c r="D1452">
         <v>29.7</v>
       </c>
-      <c r="E1452">
+      <c r="E1452" s="1">
         <v>29.9</v>
       </c>
       <c r="F1452" s="1">
@@ -34242,7 +34242,7 @@
       <c r="D1453">
         <v>30.7</v>
       </c>
-      <c r="E1453">
+      <c r="E1453" s="1">
         <v>30.6</v>
       </c>
       <c r="F1453" s="1">
@@ -34265,7 +34265,7 @@
       <c r="D1454">
         <v>30</v>
       </c>
-      <c r="E1454">
+      <c r="E1454" s="1">
         <v>30.8</v>
       </c>
       <c r="F1454" s="1">
@@ -34288,7 +34288,7 @@
       <c r="D1455">
         <v>23.8</v>
       </c>
-      <c r="E1455">
+      <c r="E1455" s="1">
         <v>32.700000000000003</v>
       </c>
       <c r="F1455" s="1">
@@ -34311,7 +34311,7 @@
       <c r="D1456">
         <v>20</v>
       </c>
-      <c r="E1456">
+      <c r="E1456" s="1">
         <v>31.4</v>
       </c>
       <c r="F1456" s="1">
@@ -34332,9 +34332,9 @@
         <v>352</v>
       </c>
       <c r="D1457">
-        <v>26.1</v>
-      </c>
-      <c r="E1457">
+        <v>25</v>
+      </c>
+      <c r="E1457" s="1">
         <v>31.2</v>
       </c>
       <c r="F1457" s="1">
@@ -34357,7 +34357,7 @@
       <c r="D1458">
         <v>26.8</v>
       </c>
-      <c r="E1458">
+      <c r="E1458" s="1">
         <v>32</v>
       </c>
       <c r="F1458" s="1">
@@ -34378,10 +34378,10 @@
         <v>354</v>
       </c>
       <c r="D1459">
-        <v>24.7</v>
-      </c>
-      <c r="E1459">
-        <v>31.4</v>
+        <v>24.5</v>
+      </c>
+      <c r="E1459" s="1">
+        <v>34.4</v>
       </c>
       <c r="F1459" s="1">
         <v>17.3</v>
@@ -34391,19 +34391,73 @@
       </c>
     </row>
     <row r="1460" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1460" s="4"/>
-      <c r="F1460" s="1"/>
-      <c r="G1460" s="1"/>
+      <c r="A1460" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1460" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1460">
+        <v>355</v>
+      </c>
+      <c r="D1460">
+        <v>24.1</v>
+      </c>
+      <c r="E1460" s="1">
+        <v>34</v>
+      </c>
+      <c r="F1460" s="1">
+        <v>20.5</v>
+      </c>
+      <c r="G1460" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="1461" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1461" s="4"/>
-      <c r="F1461" s="1"/>
-      <c r="G1461" s="1"/>
+      <c r="A1461" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1461" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1461">
+        <v>356</v>
+      </c>
+      <c r="D1461">
+        <v>23.9</v>
+      </c>
+      <c r="E1461" s="1">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="F1461" s="1">
+        <v>18.7</v>
+      </c>
+      <c r="G1461" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="1462" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1462" s="4"/>
-      <c r="F1462" s="1"/>
-      <c r="G1462" s="1"/>
+      <c r="A1462" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1462" s="4">
+        <v>2021</v>
+      </c>
+      <c r="C1462">
+        <v>357</v>
+      </c>
+      <c r="D1462">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="E1462" s="1">
+        <v>31.4</v>
+      </c>
+      <c r="F1462" s="1">
+        <v>19.8</v>
+      </c>
+      <c r="G1462" s="1">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="1463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1463" s="4"/>

--- a/Prototypes/Mungbean/GattonKylie.xlsx
+++ b/Prototypes/Mungbean/GattonKylie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pas075\Documents\ApsimX\Prototypes\Mungbean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1B2E51-1D01-4916-B870-72C480941119}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9497EF62-0D9F-439B-8474-217C6D1F899C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1335" windowWidth="20550" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kylie" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="18">
   <si>
     <t>site</t>
   </si>
@@ -932,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R4392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1425" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D1455" sqref="D1455"/>
+    <sheetView tabSelected="1" topLeftCell="A1448" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M1459" sqref="M1459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34460,131 +34460,455 @@
       </c>
     </row>
     <row r="1463" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1463" s="4"/>
-      <c r="F1463" s="1"/>
-      <c r="G1463" s="1"/>
+      <c r="A1463" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1463">
+        <v>2021</v>
+      </c>
+      <c r="C1463">
+        <v>358</v>
+      </c>
+      <c r="D1463" s="4">
+        <v>20.9</v>
+      </c>
+      <c r="E1463">
+        <v>32.9</v>
+      </c>
+      <c r="F1463">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="G1463">
+        <v>0</v>
+      </c>
     </row>
     <row r="1464" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1464" s="4"/>
-      <c r="F1464" s="1"/>
-      <c r="G1464" s="1"/>
+      <c r="A1464" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1464">
+        <v>2021</v>
+      </c>
+      <c r="C1464">
+        <v>359</v>
+      </c>
+      <c r="D1464" s="4">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E1464">
+        <v>31.9</v>
+      </c>
+      <c r="F1464">
+        <v>20.6</v>
+      </c>
+      <c r="G1464">
+        <v>0</v>
+      </c>
     </row>
     <row r="1465" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1465" s="4"/>
-      <c r="F1465" s="1"/>
-      <c r="G1465" s="1"/>
+      <c r="A1465" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1465">
+        <v>2021</v>
+      </c>
+      <c r="C1465">
+        <v>360</v>
+      </c>
+      <c r="D1465" s="4">
+        <v>15.6</v>
+      </c>
+      <c r="E1465">
+        <v>29.1</v>
+      </c>
+      <c r="F1465">
+        <v>20.3</v>
+      </c>
+      <c r="G1465">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="1466" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1466" s="4"/>
-      <c r="F1466" s="1"/>
-      <c r="G1466" s="1"/>
+      <c r="A1466" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1466">
+        <v>2021</v>
+      </c>
+      <c r="C1466">
+        <v>361</v>
+      </c>
+      <c r="D1466" s="4">
+        <v>18.3</v>
+      </c>
+      <c r="E1466">
+        <v>31.9</v>
+      </c>
+      <c r="F1466">
+        <v>18.2</v>
+      </c>
+      <c r="G1466">
+        <v>0</v>
+      </c>
     </row>
     <row r="1467" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1467" s="4"/>
-      <c r="F1467" s="1"/>
-      <c r="G1467" s="1"/>
+      <c r="A1467" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1467">
+        <v>2021</v>
+      </c>
+      <c r="C1467">
+        <v>362</v>
+      </c>
+      <c r="D1467" s="4">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E1467">
+        <v>24.8</v>
+      </c>
+      <c r="F1467">
+        <v>20.2</v>
+      </c>
+      <c r="G1467">
+        <v>0</v>
+      </c>
     </row>
     <row r="1468" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1468" s="4"/>
-      <c r="F1468" s="1"/>
-      <c r="G1468" s="1"/>
+      <c r="A1468" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1468">
+        <v>2021</v>
+      </c>
+      <c r="C1468">
+        <v>363</v>
+      </c>
+      <c r="D1468" s="4">
+        <v>13.1</v>
+      </c>
+      <c r="E1468">
+        <v>28.2</v>
+      </c>
+      <c r="F1468">
+        <v>16.8</v>
+      </c>
+      <c r="G1468">
+        <v>0</v>
+      </c>
     </row>
     <row r="1469" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1469" s="4"/>
-      <c r="F1469" s="1"/>
-      <c r="G1469" s="1"/>
+      <c r="A1469" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1469">
+        <v>2021</v>
+      </c>
+      <c r="C1469">
+        <v>364</v>
+      </c>
+      <c r="D1469" s="4">
+        <v>15.7</v>
+      </c>
+      <c r="E1469">
+        <v>29.3</v>
+      </c>
+      <c r="F1469">
+        <v>13.9</v>
+      </c>
+      <c r="G1469">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="1470" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1470" s="4"/>
-      <c r="F1470" s="1"/>
-      <c r="G1470" s="1"/>
+      <c r="A1470" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1470">
+        <v>2021</v>
+      </c>
+      <c r="C1470">
+        <v>365</v>
+      </c>
+      <c r="D1470" s="4">
+        <v>11.9</v>
+      </c>
+      <c r="E1470">
+        <v>26.7</v>
+      </c>
+      <c r="F1470">
+        <v>14</v>
+      </c>
+      <c r="G1470">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="1471" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1471" s="4"/>
-      <c r="F1471" s="1"/>
-      <c r="G1471" s="1"/>
+      <c r="A1471" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1471">
+        <v>2022</v>
+      </c>
+      <c r="C1471">
+        <v>1</v>
+      </c>
+      <c r="D1471" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E1471">
+        <v>26</v>
+      </c>
+      <c r="F1471">
+        <v>19.5</v>
+      </c>
+      <c r="G1471">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="1472" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B1472" s="4"/>
-      <c r="F1472" s="1"/>
-      <c r="G1472" s="1"/>
-    </row>
-    <row r="1473" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1473" s="4"/>
-      <c r="F1473" s="1"/>
-      <c r="G1473" s="1"/>
-    </row>
-    <row r="1474" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1474" s="4"/>
-      <c r="F1474" s="1"/>
-      <c r="G1474" s="1"/>
-    </row>
-    <row r="1475" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1475" s="4"/>
-      <c r="F1475" s="1"/>
-      <c r="G1475" s="1"/>
-    </row>
-    <row r="1476" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1476" s="4"/>
-      <c r="F1476" s="1"/>
-      <c r="G1476" s="1"/>
-    </row>
-    <row r="1477" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1477" s="4"/>
-      <c r="F1477" s="1"/>
-      <c r="G1477" s="1"/>
-    </row>
-    <row r="1478" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1478" s="4"/>
-      <c r="F1478" s="1"/>
-      <c r="G1478" s="1"/>
-    </row>
-    <row r="1479" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1479" s="4"/>
-      <c r="F1479" s="1"/>
-      <c r="G1479" s="1"/>
-    </row>
-    <row r="1480" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1480" s="4"/>
-      <c r="F1480" s="1"/>
-      <c r="G1480" s="1"/>
-    </row>
-    <row r="1481" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="A1472" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1472">
+        <v>2022</v>
+      </c>
+      <c r="C1472">
+        <v>2</v>
+      </c>
+      <c r="D1472" s="4">
+        <v>22.6</v>
+      </c>
+      <c r="E1472">
+        <v>30</v>
+      </c>
+      <c r="F1472">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G1472">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1473" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1473">
+        <v>2022</v>
+      </c>
+      <c r="C1473">
+        <v>3</v>
+      </c>
+      <c r="D1473" s="4">
+        <v>25.3</v>
+      </c>
+      <c r="E1473">
+        <v>31.6</v>
+      </c>
+      <c r="F1473">
+        <v>15.5</v>
+      </c>
+      <c r="G1473">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1474" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1474">
+        <v>2022</v>
+      </c>
+      <c r="C1474">
+        <v>4</v>
+      </c>
+      <c r="D1474" s="4">
+        <v>22.6</v>
+      </c>
+      <c r="E1474">
+        <v>31.6</v>
+      </c>
+      <c r="F1474">
+        <v>17.8</v>
+      </c>
+      <c r="G1474">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1475" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1475">
+        <v>2022</v>
+      </c>
+      <c r="C1475">
+        <v>5</v>
+      </c>
+      <c r="D1475" s="4">
+        <v>15</v>
+      </c>
+      <c r="E1475">
+        <v>30.4</v>
+      </c>
+      <c r="F1475">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G1475">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1476" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1476">
+        <v>2022</v>
+      </c>
+      <c r="C1476">
+        <v>6</v>
+      </c>
+      <c r="D1476" s="4">
+        <v>12.1</v>
+      </c>
+      <c r="E1476">
+        <v>31.3</v>
+      </c>
+      <c r="F1476">
+        <v>21.2</v>
+      </c>
+      <c r="G1476">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1477" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1477">
+        <v>2022</v>
+      </c>
+      <c r="C1477">
+        <v>7</v>
+      </c>
+      <c r="D1477" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="E1477">
+        <v>28.6</v>
+      </c>
+      <c r="F1477">
+        <v>22.9</v>
+      </c>
+      <c r="G1477">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1478" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1478">
+        <v>2022</v>
+      </c>
+      <c r="C1478">
+        <v>8</v>
+      </c>
+      <c r="D1478" s="4">
+        <v>9.5</v>
+      </c>
+      <c r="E1478">
+        <v>28</v>
+      </c>
+      <c r="F1478">
+        <v>22.4</v>
+      </c>
+      <c r="G1478">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1479" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1479">
+        <v>2022</v>
+      </c>
+      <c r="C1479">
+        <v>9</v>
+      </c>
+      <c r="D1479" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E1479">
+        <v>30.7</v>
+      </c>
+      <c r="F1479">
+        <v>22.2</v>
+      </c>
+      <c r="G1479">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1480" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1480">
+        <v>2022</v>
+      </c>
+      <c r="C1480">
+        <v>10</v>
+      </c>
+      <c r="D1480" s="4">
+        <v>25.1</v>
+      </c>
+      <c r="E1480">
+        <v>31.7</v>
+      </c>
+      <c r="F1480">
+        <v>20.8</v>
+      </c>
+      <c r="G1480">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1481" s="4"/>
       <c r="F1481" s="1"/>
       <c r="G1481" s="1"/>
     </row>
-    <row r="1482" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1482" s="4"/>
       <c r="F1482" s="1"/>
       <c r="G1482" s="1"/>
     </row>
-    <row r="1483" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1483" s="4"/>
       <c r="F1483" s="1"/>
       <c r="G1483" s="1"/>
     </row>
-    <row r="1484" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1484" s="4"/>
       <c r="F1484" s="1"/>
       <c r="G1484" s="1"/>
     </row>
-    <row r="1485" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1485" s="4"/>
       <c r="F1485" s="1"/>
       <c r="G1485" s="1"/>
     </row>
-    <row r="1486" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1486" s="4"/>
       <c r="F1486" s="1"/>
       <c r="G1486" s="1"/>
     </row>
-    <row r="1487" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1487" s="4"/>
       <c r="F1487" s="1"/>
       <c r="G1487" s="1"/>
     </row>
-    <row r="1488" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="1488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1488" s="4"/>
       <c r="F1488" s="1"/>
       <c r="G1488" s="1"/>
